--- a/Technology/Software/Datadog.xlsx
+++ b/Technology/Software/Datadog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6581A157-F044-0043-8D01-8A6D0D59CAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC80F0D-2EA4-7E4A-ABCF-69E75A4D5BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1011,6 +1011,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1029,7 +1030,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2245,38 +2245,38 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>145.19</v>
+    <v>120.75</v>
     <v>61.34</v>
-    <v>0.97470000000000001</v>
-    <v>-0.28000000000000003</v>
-    <v>-4.235E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>0.95520000000000005</v>
+    <v>-2.4500000000000002</v>
+    <v>-2.5915000000000001E-2</v>
+    <v>-0.45</v>
+    <v>-4.8869999999999999E-3</v>
     <v>USD</v>
-    <v>Datadog, Inc. (Datadog) provides monitoring and analytics platform for developers, information technology (IT) operations teams and business users in the cloud age. Its Software-as-a-Service (SaaS) platform integrates and automates infrastructure monitoring, application performance monitoring and log management to provide real-time observability of its customers’ entire technology stack. Datadog is used by organizations of all sizes and across a range of industries to enable digital transformation and cloud migration, drive collaboration among development, operations and business teams, understand user behavior and track key business metrics. The Company’s platform provides visibility and insights into IT infrastructure, application performance and the real time events. Its platform is employed across public cloud, private cloud, on-premise and multi-cloud hybrid environments.</v>
+    <v>Datadog, Inc. is the observability and security platform for cloud applications. The Company's software as a service (SaaS) platform integrates and automates infrastructure monitoring, application performance monitoring, log management, real-user monitoring, and various other capabilities to provide unified, real-time observability and security for its customers entire technology stack. Its platform consists of products that can be used individually or as a unified solution and includes a marketplace where customers can access products built by its partners on top of the Datadog platform. The Company's products include Infrastructure Monitoring, Application Performance Monitoring (APM), Log Management, Digital Experience Monitoring, Continuous Profiler, Database Monitoring, Network Monitoring, Incident Management, Observability Pipelines, Cloud Cost Management, Universal Service Monitoring, Cloud Security Management, Application Security Management, CI Visibility and others.</v>
     <v>4800</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
-    <v>620 Eighth Avenue, 45Th Floor, NEW YORK, NY, 10018 US</v>
-    <v>66.38</v>
+    <v>620 8th Avenue, 45th Floor, NEW YORK, NY, 10018 US</v>
+    <v>94.37</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45022.997516041403</v>
+    <v>45065.95392172422</v>
     <v>0</v>
-    <v>63.68</v>
-    <v>21058556190</v>
+    <v>91</v>
+    <v>29641477959</v>
     <v>DATADOG, INC.</v>
     <v>DATADOG, INC.</v>
-    <v>65.59</v>
-    <v>66.11</v>
-    <v>65.83</v>
-    <v>65.83</v>
-    <v>319893000</v>
+    <v>93.68</v>
+    <v>94.54</v>
+    <v>92.09</v>
+    <v>91.64</v>
+    <v>321875100</v>
     <v>DDOG</v>
     <v>DATADOG, INC. (XNAS:DDOG)</v>
-    <v>4053612</v>
-    <v>5406544</v>
+    <v>5644308</v>
+    <v>5946303</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2438,9 +2438,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2859,11 +2859,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2972,7 +2972,7 @@
         <v>1675100000</v>
       </c>
       <c r="H3" s="29">
-        <v>2080000000</v>
+        <v>2090000000</v>
       </c>
       <c r="I3" s="29">
         <v>2673000000</v>
@@ -3026,11 +3026,11 @@
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.24171691242313886</v>
+        <v>0.24768670527132719</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.28509615384615383</v>
+        <v>0.27894736842105261</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
@@ -3469,15 +3469,15 @@
       </c>
       <c r="N16" s="31">
         <f>O101/G3</f>
-        <v>12.571521813623066</v>
+        <v>17.695348312936542</v>
       </c>
       <c r="O16" s="31">
         <f>O101/G28</f>
-        <v>-419.82767523923445</v>
+        <v>-590.93855580143543</v>
       </c>
       <c r="P16" s="32">
         <f>O101/G106</f>
-        <v>59.568554331038307</v>
+        <v>83.847153352870293</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5042,10 +5042,10 @@
       <c r="G83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N83" s="61" t="s">
+      <c r="N83" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="O83" s="62"/>
+      <c r="O83" s="63"/>
     </row>
     <row r="84" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5069,10 +5069,10 @@
       <c r="G84" s="1">
         <v>-1286000</v>
       </c>
-      <c r="N84" s="63" t="s">
+      <c r="N84" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="O84" s="64"/>
+      <c r="O84" s="65"/>
     </row>
     <row r="85" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5342,10 +5342,10 @@
       <c r="G93" s="1">
         <v>-29628000</v>
       </c>
-      <c r="N93" s="63" t="s">
+      <c r="N93" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="O93" s="64"/>
+      <c r="O93" s="65"/>
     </row>
     <row r="94" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="O95" s="39" cm="1">
         <f t="array" ref="O95">_FV(A1,"Beta")</f>
-        <v>0.97470000000000001</v>
+        <v>0.95520000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="O97" s="37">
         <f>(O94)+((O95)*(O96-O94))</f>
-        <v>8.2910835000000002E-2</v>
+        <v>8.207136000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5487,10 +5487,10 @@
       <c r="G98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N98" s="63" t="s">
+      <c r="N98" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="O98" s="64"/>
+      <c r="O98" s="65"/>
     </row>
     <row r="99" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="O100" s="35">
         <f>O99/O103</f>
-        <v>3.8249819487414766E-2</v>
+        <v>2.7478625565315436E-2</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="O101" s="40" cm="1">
         <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
-        <v>21058556190</v>
+        <v>29641477959</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="O102" s="35">
         <f>O101/O103</f>
-        <v>0.96175018051258521</v>
+        <v>0.97252137443468456</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5639,7 +5639,7 @@
       </c>
       <c r="O103" s="41">
         <f>O99+O101</f>
-        <v>21896077190</v>
+        <v>30478998959</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5664,10 +5664,10 @@
       <c r="G104" s="11">
         <v>342288000</v>
       </c>
-      <c r="N104" s="63" t="s">
+      <c r="N104" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="O104" s="64"/>
+      <c r="O104" s="65"/>
     </row>
     <row r="105" spans="1:15" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="O105" s="27">
         <f>(O100*O92)+(O102*O97)</f>
-        <v>8.0531760415479714E-2</v>
+        <v>8.038530322132835E-2</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5732,23 +5732,23 @@
       </c>
       <c r="H106" s="42">
         <f>G106*(1+$O$106)</f>
-        <v>452593609.47627509</v>
+        <v>452580954.056714</v>
       </c>
       <c r="I106" s="42">
         <f t="shared" ref="I106:L106" si="11">H106*(1+$O$106)</f>
-        <v>579435772.26269376</v>
+        <v>579403368.35715711</v>
       </c>
       <c r="J106" s="42">
         <f t="shared" si="11"/>
-        <v>741826236.9329015</v>
+        <v>741764009.85170734</v>
       </c>
       <c r="K106" s="42">
         <f t="shared" si="11"/>
-        <v>949727635.30474913</v>
+        <v>949621414.64824843</v>
       </c>
       <c r="L106" s="42">
         <f t="shared" si="11"/>
-        <v>1215894688.4796355</v>
+        <v>1215724703.7893138</v>
       </c>
       <c r="M106" s="43" t="s">
         <v>145</v>
@@ -5758,7 +5758,7 @@
       </c>
       <c r="O106" s="45">
         <f>(SUM(H4:L4)/5)</f>
-        <v>0.28025619480839747</v>
+        <v>0.28022039629301487</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5775,7 +5775,7 @@
       <c r="K107" s="43"/>
       <c r="L107" s="46">
         <f>L106*(1+O107)/(O108-O107)</f>
-        <v>22442869564.499115</v>
+        <v>22499070130.651169</v>
       </c>
       <c r="M107" s="47" t="s">
         <v>147</v>
@@ -5790,23 +5790,23 @@
     <row r="108" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="H108" s="46">
         <f t="shared" ref="H108:J108" si="12">H107+H106</f>
-        <v>452593609.47627509</v>
+        <v>452580954.056714</v>
       </c>
       <c r="I108" s="46">
         <f t="shared" si="12"/>
-        <v>579435772.26269376</v>
+        <v>579403368.35715711</v>
       </c>
       <c r="J108" s="46">
         <f t="shared" si="12"/>
-        <v>741826236.9329015</v>
+        <v>741764009.85170734</v>
       </c>
       <c r="K108" s="46">
         <f>K107+K106</f>
-        <v>949727635.30474913</v>
+        <v>949621414.64824843</v>
       </c>
       <c r="L108" s="46">
         <f>L107+L106</f>
-        <v>23658764252.978752</v>
+        <v>23714794834.440483</v>
       </c>
       <c r="M108" s="47" t="s">
         <v>143</v>
@@ -5816,14 +5816,14 @@
       </c>
       <c r="O108" s="51">
         <f>O105</f>
-        <v>8.0531760415479714E-2</v>
+        <v>8.038530322132835E-2</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="H109" s="59" t="s">
+      <c r="H109" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="I109" s="60"/>
+      <c r="I109" s="61"/>
     </row>
     <row r="110" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="H110" s="52" t="s">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="I110" s="40">
         <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>18262043189.368954</v>
+        <v>18311640202.72842</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="I113" s="40">
         <f>I110+I111-I112</f>
-        <v>19308848189.368954</v>
+        <v>19358445202.72842</v>
       </c>
     </row>
     <row r="114" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -5867,16 +5867,16 @@
       </c>
       <c r="I114" s="53" cm="1">
         <f t="array" ref="I114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>319893000</v>
+        <v>321875100</v>
       </c>
     </row>
     <row r="115" spans="8:9" ht="20" x14ac:dyDescent="0.25">
       <c r="H115" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="I115" s="65">
+      <c r="I115" s="59">
         <f>I113/I114</f>
-        <v>60.360333578318233</v>
+        <v>60.142723692290645</v>
       </c>
     </row>
     <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="I116" s="55" cm="1">
         <f t="array" ref="I116">_FV(A1,"Price")</f>
-        <v>65.83</v>
+        <v>92.09</v>
       </c>
     </row>
     <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="I117" s="57">
         <f>I115/I116-1</f>
-        <v>-8.3087747557067715E-2</v>
+        <v>-0.34691363131403363</v>
       </c>
     </row>
     <row r="118" spans="8:9" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Datadog.xlsx
+++ b/Technology/Software/Datadog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC80F0D-2EA4-7E4A-ABCF-69E75A4D5BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B11DB1C-640C-BB48-8E6F-A15B0B7C2A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2247,11 +2247,11 @@
     <v>Powered by Refinitiv</v>
     <v>120.75</v>
     <v>61.34</v>
-    <v>0.95520000000000005</v>
-    <v>-2.4500000000000002</v>
-    <v>-2.5915000000000001E-2</v>
-    <v>-0.45</v>
-    <v>-4.8869999999999999E-3</v>
+    <v>0.96009999999999995</v>
+    <v>0.75</v>
+    <v>8.116E-3</v>
+    <v>0.09</v>
+    <v>9.6610000000000001E-4</v>
     <v>USD</v>
     <v>Datadog, Inc. is the observability and security platform for cloud applications. The Company's software as a service (SaaS) platform integrates and automates infrastructure monitoring, application performance monitoring, log management, real-user monitoring, and various other capabilities to provide unified, real-time observability and security for its customers entire technology stack. Its platform consists of products that can be used individually or as a unified solution and includes a marketplace where customers can access products built by its partners on top of the Datadog platform. The Company's products include Infrastructure Monitoring, Application Performance Monitoring (APM), Log Management, Digital Experience Monitoring, Continuous Profiler, Database Monitoring, Network Monitoring, Incident Management, Observability Pipelines, Cloud Cost Management, Universal Service Monitoring, Cloud Security Management, Application Security Management, CI Visibility and others.</v>
     <v>4800</v>
@@ -2259,24 +2259,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>620 8th Avenue, 45th Floor, NEW YORK, NY, 10018 US</v>
-    <v>94.37</v>
+    <v>95.76</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.95392172422</v>
+    <v>45072.997582128904</v>
     <v>0</v>
-    <v>91</v>
-    <v>29641477959</v>
+    <v>92.52</v>
+    <v>29985880000</v>
     <v>DATADOG, INC.</v>
     <v>DATADOG, INC.</v>
-    <v>93.68</v>
-    <v>94.54</v>
-    <v>92.09</v>
-    <v>91.64</v>
+    <v>92.88</v>
+    <v>92.41</v>
+    <v>93.16</v>
+    <v>93.25</v>
     <v>321875100</v>
     <v>DDOG</v>
     <v>DATADOG, INC. (XNAS:DDOG)</v>
-    <v>5644308</v>
-    <v>5946303</v>
+    <v>3922711</v>
+    <v>6145832</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2438,9 +2438,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2860,10 +2860,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I92" sqref="I92"/>
+      <selection pane="bottomRight" activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3469,15 +3469,15 @@
       </c>
       <c r="N16" s="31">
         <f>O101/G3</f>
-        <v>17.695348312936542</v>
+        <v>17.900949197062861</v>
       </c>
       <c r="O16" s="31">
         <f>O101/G28</f>
-        <v>-590.93855580143543</v>
+        <v>-597.80462519936202</v>
       </c>
       <c r="P16" s="32">
         <f>O101/G106</f>
-        <v>83.847153352870293</v>
+        <v>84.821366945954665</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="O95" s="39" cm="1">
         <f t="array" ref="O95">_FV(A1,"Beta")</f>
-        <v>0.95520000000000005</v>
+        <v>0.96009999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="O97" s="37">
         <f>(O94)+((O95)*(O96-O94))</f>
-        <v>8.207136000000001E-2</v>
+        <v>8.2282305E-2</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="O100" s="35">
         <f>O99/O103</f>
-        <v>2.7478625565315436E-2</v>
+        <v>2.7171596022126175E-2</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="O101" s="40" cm="1">
         <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
-        <v>29641477959</v>
+        <v>29985880000</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="O102" s="35">
         <f>O101/O103</f>
-        <v>0.97252137443468456</v>
+        <v>0.97282840397787385</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5639,7 +5639,7 @@
       </c>
       <c r="O103" s="41">
         <f>O99+O101</f>
-        <v>30478998959</v>
+        <v>30823401000</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="O105" s="27">
         <f>(O100*O92)+(O102*O97)</f>
-        <v>8.038530322132835E-2</v>
+        <v>8.0609355487735165E-2</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5775,7 +5775,7 @@
       <c r="K107" s="43"/>
       <c r="L107" s="46">
         <f>L106*(1+O107)/(O108-O107)</f>
-        <v>22499070130.651169</v>
+        <v>22408420497.858173</v>
       </c>
       <c r="M107" s="47" t="s">
         <v>147</v>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="L108" s="46">
         <f>L107+L106</f>
-        <v>23714794834.440483</v>
+        <v>23624145201.647488</v>
       </c>
       <c r="M108" s="47" t="s">
         <v>143</v>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="O108" s="51">
         <f>O105</f>
-        <v>8.038530322132835E-2</v>
+        <v>8.0609355487735165E-2</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="I110" s="40">
         <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>18311640202.72842</v>
+        <v>18232187588.272388</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="I113" s="40">
         <f>I110+I111-I112</f>
-        <v>19358445202.72842</v>
+        <v>19278992588.272388</v>
       </c>
     </row>
     <row r="114" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="I115" s="59">
         <f>I113/I114</f>
-        <v>60.142723692290645</v>
+        <v>59.895880694941575</v>
       </c>
     </row>
     <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="I116" s="55" cm="1">
         <f t="array" ref="I116">_FV(A1,"Price")</f>
-        <v>92.09</v>
+        <v>93.16</v>
       </c>
     </row>
     <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="I117" s="57">
         <f>I115/I116-1</f>
-        <v>-0.34691363131403363</v>
+        <v>-0.35706439786451716</v>
       </c>
     </row>
     <row r="118" spans="8:9" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Datadog.xlsx
+++ b/Technology/Software/Datadog.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B11DB1C-640C-BB48-8E6F-A15B0B7C2A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B85073-F2C8-2847-9B13-91D98425B301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="162">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,6 +544,21 @@
   </si>
   <si>
     <t>Shares (No dilution)</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
@@ -724,7 +733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -888,12 +897,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -980,7 +998,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1012,6 +1029,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1302,11 +1329,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1346,7 +1373,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$G$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$G$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2125,6 +2152,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7229999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -2247,11 +2334,9 @@
     <v>Powered by Refinitiv</v>
     <v>120.75</v>
     <v>61.34</v>
-    <v>0.96009999999999995</v>
-    <v>0.75</v>
-    <v>8.116E-3</v>
-    <v>0.09</v>
-    <v>9.6610000000000001E-4</v>
+    <v>0.91800000000000004</v>
+    <v>2.56</v>
+    <v>2.7844000000000001E-2</v>
     <v>USD</v>
     <v>Datadog, Inc. is the observability and security platform for cloud applications. The Company's software as a service (SaaS) platform integrates and automates infrastructure monitoring, application performance monitoring, log management, real-user monitoring, and various other capabilities to provide unified, real-time observability and security for its customers entire technology stack. Its platform consists of products that can be used individually or as a unified solution and includes a marketplace where customers can access products built by its partners on top of the Datadog platform. The Company's products include Infrastructure Monitoring, Application Performance Monitoring (APM), Log Management, Digital Experience Monitoring, Continuous Profiler, Database Monitoring, Network Monitoring, Incident Management, Observability Pipelines, Cloud Cost Management, Universal Service Monitoring, Cloud Security Management, Application Security Management, CI Visibility and others.</v>
     <v>4800</v>
@@ -2259,24 +2344,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>620 8th Avenue, 45th Floor, NEW YORK, NY, 10018 US</v>
-    <v>95.76</v>
+    <v>96.15</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.997582128904</v>
+    <v>45099.998195613283</v>
     <v>0</v>
-    <v>92.52</v>
-    <v>29985880000</v>
+    <v>90.88</v>
+    <v>30417196950</v>
     <v>DATADOG, INC.</v>
     <v>DATADOG, INC.</v>
-    <v>92.88</v>
-    <v>92.41</v>
-    <v>93.16</v>
-    <v>93.25</v>
+    <v>91.66</v>
+    <v>91.94</v>
+    <v>94.5</v>
     <v>321875100</v>
     <v>DDOG</v>
     <v>DATADOG, INC. (XNAS:DDOG)</v>
-    <v>3922711</v>
-    <v>6145832</v>
+    <v>353</v>
+    <v>4458486</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2308,8 +2392,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2329,7 +2411,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2346,7 +2427,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2357,16 +2438,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2430,19 +2508,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2486,9 +2558,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2496,9 +2565,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2859,11 +2925,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J98" sqref="J98"/>
+      <selection pane="bottomRight" activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2916,31 +2982,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -2972,36 +3038,36 @@
         <v>1675100000</v>
       </c>
       <c r="H3" s="29">
-        <v>2090000000</v>
+        <v>2091000000</v>
       </c>
       <c r="I3" s="29">
-        <v>2673000000</v>
+        <v>2646000000</v>
       </c>
       <c r="J3" s="29">
-        <v>3574000000</v>
+        <v>3512000000</v>
       </c>
       <c r="K3" s="29">
-        <v>4649000000</v>
+        <v>4626000000</v>
       </c>
       <c r="L3" s="29">
-        <v>5749000000</v>
+        <v>5721000000</v>
       </c>
       <c r="M3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="P3" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3026,23 +3092,23 @@
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.24768670527132719</v>
+        <v>0.2482836845561458</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.27894736842105261</v>
+        <v>0.26542324246771876</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.33707444818555921</v>
+        <v>0.3272864701436129</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.30078343592613321</v>
+        <v>0.31719817767653757</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.23661002366100226</v>
+        <v>0.23670557717250329</v>
       </c>
       <c r="M4" s="17">
         <f>(G4+F4+E4)/3</f>
@@ -3057,7 +3123,7 @@
         <v>0.57734869535946298</v>
       </c>
       <c r="P4" s="17">
-        <f>(G105+F105+E105)/3</f>
+        <f>(G106+F106+E106)/3</f>
         <v>35.538443691243934</v>
       </c>
       <c r="V4" s="16"/>
@@ -3122,16 +3188,16 @@
         <v>1328357000</v>
       </c>
       <c r="M6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="O6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="P6" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3169,7 +3235,7 @@
         <v>-2.9899999999999999E-2</v>
       </c>
       <c r="P7" s="21">
-        <f>G106/G3</f>
+        <f>G107/G3</f>
         <v>0.21104292281057846</v>
       </c>
     </row>
@@ -3198,7 +3264,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3227,16 +3293,16 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="M9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="O9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="P9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3324,21 +3390,21 @@
         <v>634701000</v>
       </c>
       <c r="M12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="P12" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3388,22 +3454,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3429,16 +3495,16 @@
         <v>1387052000</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N15" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="P15" s="20" t="s">
         <v>121</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3469,15 +3535,15 @@
       </c>
       <c r="N16" s="31">
         <f>O101/G3</f>
-        <v>17.900949197062861</v>
+        <v>18.158436481404095</v>
       </c>
       <c r="O16" s="31">
         <f>O101/G28</f>
-        <v>-597.80462519936202</v>
+        <v>-606.4034479665072</v>
       </c>
       <c r="P16" s="32">
-        <f>O101/G106</f>
-        <v>84.821366945954665</v>
+        <f>O101/G107</f>
+        <v>86.041437635424501</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3485,13 +3551,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>30434000</v>
@@ -3526,7 +3592,7 @@
         <v>34629000</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3551,6 +3617,21 @@
       <c r="G19" s="10">
         <v>9725000</v>
       </c>
+      <c r="H19" s="59">
+        <v>394200000</v>
+      </c>
+      <c r="I19" s="59">
+        <v>525000000</v>
+      </c>
+      <c r="J19" s="59">
+        <v>743800000</v>
+      </c>
+      <c r="K19" s="59">
+        <v>839000000</v>
+      </c>
+      <c r="L19" s="59">
+        <v>1112000000</v>
+      </c>
       <c r="M19" s="33">
         <f>G40-G56-G61</f>
         <v>1046805000</v>
@@ -3558,7 +3639,7 @@
     </row>
     <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3581,6 +3662,26 @@
         <f t="shared" si="3"/>
         <v>-0.61964173967459324</v>
       </c>
+      <c r="H20" s="16">
+        <f t="shared" ref="H20" si="4">(H19/G19)-1</f>
+        <v>39.534704370179952</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" ref="I20" si="5">(I19/H19)-1</f>
+        <v>0.33181126331811273</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" ref="J20" si="6">(J19/I19)-1</f>
+        <v>0.41676190476190467</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" ref="K20" si="7">(K19/J19)-1</f>
+        <v>0.12799139553643446</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" ref="L20" si="8">(L19/K19)-1</f>
+        <v>0.32538736591179984</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -3604,6 +3705,26 @@
       <c r="G21" s="2">
         <v>5.7999999999999996E-3</v>
       </c>
+      <c r="H21" s="60">
+        <f>H19/H3</f>
+        <v>0.18852223816355809</v>
+      </c>
+      <c r="I21" s="60">
+        <f t="shared" ref="I21:L21" si="9">I19/I3</f>
+        <v>0.1984126984126984</v>
+      </c>
+      <c r="J21" s="60">
+        <f t="shared" si="9"/>
+        <v>0.21178815489749431</v>
+      </c>
+      <c r="K21" s="60">
+        <f t="shared" si="9"/>
+        <v>0.18136619109381755</v>
+      </c>
+      <c r="L21" s="60">
+        <f t="shared" si="9"/>
+        <v>0.19437161335430869</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -3765,10 +3886,25 @@
       <c r="G28" s="11">
         <v>-50160000</v>
       </c>
+      <c r="H28" s="61">
+        <v>410700000</v>
+      </c>
+      <c r="I28" s="61">
+        <v>532700000</v>
+      </c>
+      <c r="J28" s="61">
+        <v>711400000</v>
+      </c>
+      <c r="K28" s="61">
+        <v>881200000</v>
+      </c>
+      <c r="L28" s="61">
+        <v>1071000000</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3784,12 +3920,32 @@
         <v>0.46900059844404551</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:G29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:G29" si="10">(F28/E28)-1</f>
         <v>-0.15488654418055159</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.4179320318148951</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" ref="H29" si="11">(H28/G28)-1</f>
+        <v>-9.187799043062201</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" ref="I29" si="12">(I28/H28)-1</f>
+        <v>0.29705381056732416</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" ref="J29" si="13">(J28/I28)-1</f>
+        <v>0.33546085977097806</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" ref="K29" si="14">(K28/J28)-1</f>
+        <v>0.23868428450941814</v>
+      </c>
+      <c r="L29" s="16">
+        <f t="shared" ref="L29" si="15">(L28/K28)-1</f>
+        <v>0.21538810712664547</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3814,6 +3970,26 @@
       <c r="G30" s="2">
         <v>-2.9899999999999999E-2</v>
       </c>
+      <c r="H30" s="62">
+        <f>H28/H3</f>
+        <v>0.19641319942611191</v>
+      </c>
+      <c r="I30" s="62">
+        <f t="shared" ref="I30:L30" si="16">I28/I3</f>
+        <v>0.20132275132275132</v>
+      </c>
+      <c r="J30" s="62">
+        <f t="shared" si="16"/>
+        <v>0.2025626423690205</v>
+      </c>
+      <c r="K30" s="62">
+        <f t="shared" si="16"/>
+        <v>0.19048854301772589</v>
+      </c>
+      <c r="L30" s="62">
+        <f t="shared" si="16"/>
+        <v>0.18720503408495018</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -3837,6 +4013,21 @@
       <c r="G31" s="12">
         <v>-0.16</v>
       </c>
+      <c r="H31" s="63">
+        <v>1.28</v>
+      </c>
+      <c r="I31" s="63">
+        <v>1.66</v>
+      </c>
+      <c r="J31" s="63">
+        <v>2.21</v>
+      </c>
+      <c r="K31" s="63">
+        <v>2.74</v>
+      </c>
+      <c r="L31" s="63">
+        <v>3.33</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -3909,7 +4100,7 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -3917,19 +4108,19 @@
         <v>2.1516728250760373</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:E35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:E35" si="17">(D34-C34)/C34</f>
         <v>-0.44221704696808978</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.1473050553001651</v>
       </c>
       <c r="F35" s="23">
-        <f t="shared" ref="F35" si="6">(F34-E34)/E34</f>
+        <f t="shared" ref="F35" si="18">(F34-E34)/E34</f>
         <v>3.2951556517396369E-2</v>
       </c>
       <c r="G35" s="23">
-        <f t="shared" ref="G35" si="7">(G34-F34)/F34</f>
+        <f t="shared" ref="G35" si="19">(G34-F34)/F34</f>
         <v>0</v>
       </c>
     </row>
@@ -3938,22 +4129,22 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -3961,22 +4152,22 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -4007,10 +4198,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1">
         <v>176674000</v>
@@ -4076,22 +4267,22 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -4237,22 +4428,22 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1">
         <v>1292532000</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -4260,22 +4451,22 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -4329,22 +4520,22 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4398,10 +4589,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1">
         <v>11916000</v>
@@ -4433,10 +4624,10 @@
         <v>12558000</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -4513,13 +4704,13 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1">
         <v>575864000</v>
@@ -4559,22 +4750,22 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -4628,22 +4819,22 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -4674,10 +4865,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1">
         <v>3000</v>
@@ -4758,7 +4949,7 @@
         <v>1197136000</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -4812,22 +5003,22 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -4835,22 +5026,22 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -4904,22 +5095,22 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -4947,30 +5138,30 @@
     </row>
     <row r="80" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:G80" si="8">B79/B3</f>
+        <f t="shared" ref="B80:G80" si="20">B79/B3</f>
         <v>3.0448288524329851E-2</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>2.6474552825416379E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>5.2467059926126026E-2</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.12324472298356494</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.1591558577893902</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.21679541519909259</v>
       </c>
     </row>
@@ -5025,27 +5216,27 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N83" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="O83" s="63"/>
+        <v>91</v>
+      </c>
+      <c r="N83" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="O83" s="70"/>
     </row>
     <row r="84" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5069,10 +5260,10 @@
       <c r="G84" s="1">
         <v>-1286000</v>
       </c>
-      <c r="N84" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="O84" s="65"/>
+      <c r="N84" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="O84" s="72"/>
     </row>
     <row r="85" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5097,7 +5288,7 @@
         <v>117546000</v>
       </c>
       <c r="N85" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O85" s="25">
         <f>G17</f>
@@ -5127,7 +5318,7 @@
         <v>64391000</v>
       </c>
       <c r="N86" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O86" s="25">
         <f>G56</f>
@@ -5157,7 +5348,7 @@
         <v>418407000</v>
       </c>
       <c r="N87" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O87" s="25">
         <f>G61</f>
@@ -5187,7 +5378,7 @@
         <v>-35261000</v>
       </c>
       <c r="N88" s="34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O88" s="35">
         <f>O85/(O86+O87)</f>
@@ -5196,34 +5387,34 @@
     </row>
     <row r="89" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:G89" si="21">(-1*B88)/B3</f>
+        <v>2.3332440130606088E-2</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="21"/>
+        <v>4.8779010182908665E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="21"/>
+        <v>3.6702684822757597E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="21"/>
+        <v>8.973165016753222E-3</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="21"/>
+        <v>9.6774444392603298E-3</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="21"/>
+        <v>2.1050086561996299E-2</v>
+      </c>
+      <c r="N89" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:G89" si="9">(-1*B88)/B3</f>
-        <v>2.3332440130606088E-2</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="9"/>
-        <v>4.8779010182908665E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="9"/>
-        <v>3.6702684822757597E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="9"/>
-        <v>8.973165016753222E-3</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="9"/>
-        <v>9.6774444392603298E-3</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="9"/>
-        <v>2.1050086561996299E-2</v>
-      </c>
-      <c r="N89" s="24" t="s">
-        <v>106</v>
       </c>
       <c r="O89" s="25">
         <f>G27</f>
@@ -5265,10 +5456,10 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1">
         <v>-176639000</v>
@@ -5283,7 +5474,7 @@
         <v>-1413717000</v>
       </c>
       <c r="N91" s="34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O91" s="35">
         <f>O89/O90</f>
@@ -5295,13 +5486,13 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1">
         <v>670184000</v>
@@ -5313,7 +5504,7 @@
         <v>1139814000</v>
       </c>
       <c r="N92" s="36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O92" s="37">
         <f>O88*(1-O91)</f>
@@ -5342,10 +5533,10 @@
       <c r="G93" s="1">
         <v>-29628000</v>
       </c>
-      <c r="N93" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="O93" s="65"/>
+      <c r="N93" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="O93" s="72"/>
     </row>
     <row r="94" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5370,10 +5561,11 @@
         <v>-384670000</v>
       </c>
       <c r="N94" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O94" s="38">
-        <v>4.095E-2</v>
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5381,29 +5573,29 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1">
         <v>-3000</v>
       </c>
       <c r="N95" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O95" s="39" cm="1">
         <f t="array" ref="O95">_FV(A1,"Beta")</f>
-        <v>0.96009999999999995</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5411,25 +5603,25 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>706317000</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O96" s="38">
         <v>8.4000000000000005E-2</v>
@@ -5440,29 +5632,29 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1">
         <v>-421000</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O97" s="37">
         <f>(O94)+((O95)*(O96-O94))</f>
-        <v>8.2282305E-2</v>
+        <v>8.0164860000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5470,27 +5662,27 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N98" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="O98" s="65"/>
+        <v>91</v>
+      </c>
+      <c r="N98" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="O98" s="72"/>
     </row>
     <row r="99" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5515,7 +5707,7 @@
         <v>36026000</v>
       </c>
       <c r="N99" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O99" s="25">
         <f>O86+O87</f>
@@ -5545,11 +5737,11 @@
         <v>36023000</v>
       </c>
       <c r="N100" s="34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O100" s="35">
         <f>O99/O103</f>
-        <v>2.7171596022126175E-2</v>
+        <v>2.6796626395407929E-2</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5575,11 +5767,11 @@
         <v>-1935000</v>
       </c>
       <c r="N101" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O101" s="40" cm="1">
         <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
-        <v>29985880000</v>
+        <v>30417196950</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5605,11 +5797,11 @@
         <v>67825000</v>
       </c>
       <c r="N102" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O102" s="35">
         <f>O101/O103</f>
-        <v>0.97282840397787385</v>
+        <v>0.97320337360459208</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5635,11 +5827,11 @@
         <v>274463000</v>
       </c>
       <c r="N103" s="36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O103" s="41">
         <f>O99+O101</f>
-        <v>30823401000</v>
+        <v>31254717950</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5664,179 +5856,211 @@
       <c r="G104" s="11">
         <v>342288000</v>
       </c>
-      <c r="N104" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="O104" s="65"/>
+      <c r="N104" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="O104" s="72"/>
     </row>
     <row r="105" spans="1:15" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-1.8308177143804942</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>-1.1579157516470353</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>104.19342604298356</v>
-      </c>
-      <c r="F105" s="15">
-        <f t="shared" ref="F105:G105" si="10">(F106/E106)-1</f>
-        <v>2.0107681953658303</v>
-      </c>
-      <c r="G105" s="15">
-        <f t="shared" si="10"/>
-        <v>0.41113683538240453</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
+        <v>157</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:F105" si="22">(B22*(1-0.2))+B77+B88+B81</f>
+        <v>6962200</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="22"/>
+        <v>-5298400</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="22"/>
+        <v>-26595000</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="22"/>
+        <v>-13449400</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="22"/>
+        <v>61035200</v>
+      </c>
+      <c r="G105" s="1">
+        <f>(G22*(1-0.2))+G77+G88+G81</f>
+        <v>-41195000</v>
+      </c>
+      <c r="H105" s="42">
+        <f>G105*(1+$O$106)</f>
+        <v>-52687557.635464095</v>
+      </c>
+      <c r="I105" s="42">
+        <f t="shared" ref="I105:L105" si="23">H105*(1+$O$106)</f>
+        <v>-67386302.453947112</v>
+      </c>
+      <c r="J105" s="42">
+        <f t="shared" si="23"/>
+        <v>-86185694.72953403</v>
+      </c>
+      <c r="K105" s="42">
+        <f t="shared" si="23"/>
+        <v>-110229730.75409245</v>
+      </c>
+      <c r="L105" s="42">
+        <f t="shared" si="23"/>
+        <v>-140981558.25337869</v>
+      </c>
+      <c r="M105" s="43" t="s">
+        <v>160</v>
+      </c>
       <c r="N105" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O105" s="27">
         <f>(O100*O92)+(O102*O97)</f>
-        <v>8.0609355487735165E-2</v>
+        <v>7.857173767219322E-2</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>6029000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-5009000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>791000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>83208000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>250520000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>353518000</v>
-      </c>
-      <c r="H106" s="42">
-        <f>G106*(1+$O$106)</f>
-        <v>452580954.056714</v>
-      </c>
-      <c r="I106" s="42">
-        <f t="shared" ref="I106:L106" si="11">H106*(1+$O$106)</f>
-        <v>579403368.35715711</v>
-      </c>
-      <c r="J106" s="42">
-        <f t="shared" si="11"/>
-        <v>741764009.85170734</v>
-      </c>
-      <c r="K106" s="42">
-        <f t="shared" si="11"/>
-        <v>949621414.64824843</v>
-      </c>
-      <c r="L106" s="42">
-        <f t="shared" si="11"/>
-        <v>1215724703.7893138</v>
+      <c r="A106" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
+        <v>-1.8308177143804942</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>-1.1579157516470353</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>104.19342604298356</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>2.0107681953658303</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>0.41113683538240453</v>
+      </c>
+      <c r="H106" s="65">
+        <v>278600000</v>
+      </c>
+      <c r="I106" s="65">
+        <v>369000000</v>
+      </c>
+      <c r="J106" s="65">
+        <v>573900000</v>
+      </c>
+      <c r="K106" s="65">
+        <v>826900000</v>
+      </c>
+      <c r="L106" s="65">
+        <v>974550000</v>
       </c>
       <c r="M106" s="43" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="N106" s="44" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O106" s="45">
         <f>(SUM(H4:L4)/5)</f>
-        <v>0.28022039629301487</v>
+        <v>0.27897943040330364</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
+      <c r="A107" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1">
+        <v>6029000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-5009000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>791000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>83208000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>250520000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>353518000</v>
+      </c>
       <c r="H107" s="43"/>
       <c r="I107" s="43"/>
       <c r="J107" s="43"/>
       <c r="K107" s="43"/>
-      <c r="L107" s="46">
+      <c r="L107" s="66">
         <f>L106*(1+O107)/(O108-O107)</f>
-        <v>22408420497.858173</v>
-      </c>
-      <c r="M107" s="47" t="s">
+        <v>18646282413.170498</v>
+      </c>
+      <c r="M107" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="N107" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="O107" s="48">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="H108" s="66">
+        <f t="shared" ref="H108:K108" si="24">H107+H106</f>
+        <v>278600000</v>
+      </c>
+      <c r="I108" s="66">
+        <f t="shared" si="24"/>
+        <v>369000000</v>
+      </c>
+      <c r="J108" s="66">
+        <f t="shared" si="24"/>
+        <v>573900000</v>
+      </c>
+      <c r="K108" s="66">
+        <f t="shared" si="24"/>
+        <v>826900000</v>
+      </c>
+      <c r="L108" s="66">
+        <f>L107+L106</f>
+        <v>19620832413.170498</v>
+      </c>
+      <c r="M108" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="N108" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="O108" s="50">
+        <f>O105</f>
+        <v>7.857173767219322E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="H109" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="N107" s="48" t="s">
+      <c r="I109" s="68"/>
+    </row>
+    <row r="110" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="H110" s="51" t="s">
         <v>148</v>
-      </c>
-      <c r="O107" s="49">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="H108" s="46">
-        <f t="shared" ref="H108:J108" si="12">H107+H106</f>
-        <v>452580954.056714</v>
-      </c>
-      <c r="I108" s="46">
-        <f t="shared" si="12"/>
-        <v>579403368.35715711</v>
-      </c>
-      <c r="J108" s="46">
-        <f t="shared" si="12"/>
-        <v>741764009.85170734</v>
-      </c>
-      <c r="K108" s="46">
-        <f>K107+K106</f>
-        <v>949621414.64824843</v>
-      </c>
-      <c r="L108" s="46">
-        <f>L107+L106</f>
-        <v>23624145201.647488</v>
-      </c>
-      <c r="M108" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="N108" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="O108" s="51">
-        <f>O105</f>
-        <v>8.0609355487735165E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="H109" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="I109" s="61"/>
-    </row>
-    <row r="110" spans="1:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="H110" s="52" t="s">
-        <v>151</v>
       </c>
       <c r="I110" s="40">
         <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>18232187588.272388</v>
+        <v>15086174236.305714</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="H111" s="52" t="s">
-        <v>152</v>
+      <c r="H111" s="51" t="s">
+        <v>149</v>
       </c>
       <c r="I111" s="40">
         <f>G40</f>
@@ -5844,8 +6068,8 @@
       </c>
     </row>
     <row r="112" spans="1:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="H112" s="52" t="s">
-        <v>139</v>
+      <c r="H112" s="51" t="s">
+        <v>137</v>
       </c>
       <c r="I112" s="40">
         <f>O99</f>
@@ -5853,55 +6077,55 @@
       </c>
     </row>
     <row r="113" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H113" s="52" t="s">
-        <v>153</v>
+      <c r="H113" s="51" t="s">
+        <v>150</v>
       </c>
       <c r="I113" s="40">
         <f>I110+I111-I112</f>
-        <v>19278992588.272388</v>
+        <v>16132979236.305714</v>
       </c>
     </row>
     <row r="114" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H114" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="I114" s="53" cm="1">
+      <c r="H114" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="I114" s="52" cm="1">
         <f t="array" ref="I114">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>321875100</v>
       </c>
     </row>
     <row r="115" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H115" s="54" t="s">
+      <c r="H115" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="I115" s="58">
+        <f>I113/I114</f>
+        <v>50.121861667167522</v>
+      </c>
+    </row>
+    <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="H116" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="I116" s="54" cm="1">
+        <f t="array" ref="I116">_FV(A1,"Price")</f>
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="H117" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="I117" s="56">
+        <f>I115/I116-1</f>
+        <v>-0.46960992944796276</v>
+      </c>
+    </row>
+    <row r="118" spans="8:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="H118" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="I115" s="59">
-        <f>I113/I114</f>
-        <v>59.895880694941575</v>
-      </c>
-    </row>
-    <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H116" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="I116" s="55" cm="1">
-        <f t="array" ref="I116">_FV(A1,"Price")</f>
-        <v>93.16</v>
-      </c>
-    </row>
-    <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H117" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="I117" s="57">
-        <f>I115/I116-1</f>
-        <v>-0.35706439786451716</v>
-      </c>
-    </row>
-    <row r="118" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H118" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="I118" s="58" t="str">
+      <c r="I118" s="57" t="str">
         <f>IF(I115&gt;I116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -5930,8 +6154,9 @@
     <hyperlink ref="G36" r:id="rId12" tooltip="https://www.sec.gov/Archives/edgar/data/1561550/000156155023000006/0001561550-23-000006-index.htm" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="G74" r:id="rId13" tooltip="https://www.sec.gov/Archives/edgar/data/1561550/000156155023000006/0001561550-23-000006-index.htm" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="H1" r:id="rId14" display="https://finbox.com/NASDAQGS:DDOG/explorer/revenue_proj" xr:uid="{3169BC1B-53C1-C64C-93F3-6AAE0E545185}"/>
+    <hyperlink ref="M106" r:id="rId15" xr:uid="{BFB3513A-4708-F941-AF41-31DBCCA5C6AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
--- a/Technology/Software/Datadog.xlsx
+++ b/Technology/Software/Datadog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B85073-F2C8-2847-9B13-91D98425B301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463B7FF3-3F57-864C-924C-E9BEE9CB8479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -559,18 +559,35 @@
   </si>
   <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -911,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1056,6 +1073,21 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2170,12 +2202,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2192,14 +2225,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2207,6 +2240,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2334,9 +2368,11 @@
     <v>Powered by Refinitiv</v>
     <v>120.75</v>
     <v>61.34</v>
-    <v>0.91800000000000004</v>
-    <v>2.56</v>
-    <v>2.7844000000000001E-2</v>
+    <v>0.92569999999999997</v>
+    <v>-0.33</v>
+    <v>-3.5230000000000001E-3</v>
+    <v>-0.04</v>
+    <v>-4.2850000000000001E-4</v>
     <v>USD</v>
     <v>Datadog, Inc. is the observability and security platform for cloud applications. The Company's software as a service (SaaS) platform integrates and automates infrastructure monitoring, application performance monitoring, log management, real-user monitoring, and various other capabilities to provide unified, real-time observability and security for its customers entire technology stack. Its platform consists of products that can be used individually or as a unified solution and includes a marketplace where customers can access products built by its partners on top of the Datadog platform. The Company's products include Infrastructure Monitoring, Application Performance Monitoring (APM), Log Management, Digital Experience Monitoring, Continuous Profiler, Database Monitoring, Network Monitoring, Incident Management, Observability Pipelines, Cloud Cost Management, Universal Service Monitoring, Cloud Security Management, Application Security Management, CI Visibility and others.</v>
     <v>4800</v>
@@ -2344,23 +2380,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>620 8th Avenue, 45th Floor, NEW YORK, NY, 10018 US</v>
-    <v>96.15</v>
+    <v>96.314999999999998</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.998195613283</v>
+    <v>45103.917836816407</v>
     <v>0</v>
-    <v>90.88</v>
-    <v>30417196950</v>
+    <v>92.75</v>
+    <v>30043821834</v>
     <v>DATADOG, INC.</v>
     <v>DATADOG, INC.</v>
-    <v>91.66</v>
-    <v>91.94</v>
-    <v>94.5</v>
+    <v>93.1</v>
+    <v>93.67</v>
+    <v>93.34</v>
+    <v>93.3</v>
     <v>321875100</v>
     <v>DDOG</v>
     <v>DATADOG, INC. (XNAS:DDOG)</v>
-    <v>353</v>
-    <v>4458486</v>
+    <v>2825224</v>
+    <v>4371724</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2392,6 +2429,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2411,6 +2450,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2427,7 +2467,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2438,13 +2478,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2508,13 +2551,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2558,6 +2607,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2565,6 +2617,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2926,10 +2981,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I98" sqref="I98"/>
+      <selection pane="bottomRight" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3535,18 +3590,18 @@
       </c>
       <c r="N16" s="31">
         <f>O101/G3</f>
-        <v>18.158436481404095</v>
+        <v>17.935539271685272</v>
       </c>
       <c r="O16" s="31">
         <f>O101/G28</f>
-        <v>-606.4034479665072</v>
+        <v>-598.95976543062204</v>
       </c>
       <c r="P16" s="32">
         <f>O101/G107</f>
-        <v>86.041437635424501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+        <v>84.985267607307122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3569,7 +3624,7 @@
         <v>13166000</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3594,8 +3649,17 @@
       <c r="M18" s="19" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="N18" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3636,8 +3700,20 @@
         <f>G40-G56-G61</f>
         <v>1046805000</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="74">
+        <f>O101/H3</f>
+        <v>14.368159652797704</v>
+      </c>
+      <c r="O19" s="74">
+        <f>O101/H28</f>
+        <v>73.152719342585826</v>
+      </c>
+      <c r="P19" s="75">
+        <f>O101/H106</f>
+        <v>107.8385564752333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>100</v>
       </c>
@@ -3683,7 +3759,7 @@
         <v>0.32538736591179984</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3725,8 +3801,14 @@
         <f t="shared" si="9"/>
         <v>0.19437161335430869</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="O21" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3748,8 +3830,16 @@
       <c r="G22" s="10">
         <v>-58695000</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="O22" s="76">
+        <f>(-1*G98)/O101</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="77">
+        <f>G107/O101</f>
+        <v>1.1766745321326951E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3772,7 +3862,7 @@
         <v>-3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3795,7 +3885,7 @@
         <v>20625000</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3818,7 +3908,7 @@
         <v>-38070000</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3841,7 +3931,7 @@
         <v>-2.2700000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3864,7 +3954,7 @@
         <v>12090000</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3902,7 +3992,7 @@
         <v>1071000000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>101</v>
       </c>
@@ -3948,7 +4038,7 @@
         <v>0.21538810712664547</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3991,7 +4081,7 @@
         <v>0.18720503408495018</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4029,7 +4119,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -5565,7 +5655,7 @@
       </c>
       <c r="O94" s="38">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5595,7 +5685,7 @@
       </c>
       <c r="O95" s="39" cm="1">
         <f t="array" ref="O95">_FV(A1,"Beta")</f>
-        <v>0.91800000000000004</v>
+        <v>0.92569999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5654,7 +5744,7 @@
       </c>
       <c r="O97" s="37">
         <f>(O94)+((O95)*(O96-O94))</f>
-        <v>8.0164860000000004E-2</v>
+        <v>8.0536877000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5676,8 +5766,8 @@
       <c r="F98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>91</v>
+      <c r="G98" s="1">
+        <v>0</v>
       </c>
       <c r="N98" s="71" t="s">
         <v>136</v>
@@ -5741,7 +5831,7 @@
       </c>
       <c r="O100" s="35">
         <f>O99/O103</f>
-        <v>2.6796626395407929E-2</v>
+        <v>2.7120614686415096E-2</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5771,7 +5861,7 @@
       </c>
       <c r="O101" s="40" cm="1">
         <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
-        <v>30417196950</v>
+        <v>30043821834</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5801,7 +5891,7 @@
       </c>
       <c r="O102" s="35">
         <f>O101/O103</f>
-        <v>0.97320337360459208</v>
+        <v>0.97287938531358487</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5831,7 +5921,7 @@
       </c>
       <c r="O103" s="41">
         <f>O99+O101</f>
-        <v>31254717950</v>
+        <v>30881342834</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5917,7 +6007,7 @@
       </c>
       <c r="O105" s="27">
         <f>(O100*O92)+(O102*O97)</f>
-        <v>7.857173767219322E-2</v>
+        <v>7.8914403478215794E-2</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5999,7 +6089,7 @@
       <c r="K107" s="43"/>
       <c r="L107" s="66">
         <f>L106*(1+O107)/(O108-O107)</f>
-        <v>18646282413.170498</v>
+        <v>18527771533.327133</v>
       </c>
       <c r="M107" s="46" t="s">
         <v>144</v>
@@ -6030,7 +6120,7 @@
       </c>
       <c r="L108" s="66">
         <f>L107+L106</f>
-        <v>19620832413.170498</v>
+        <v>19502321533.327133</v>
       </c>
       <c r="M108" s="46" t="s">
         <v>141</v>
@@ -6040,7 +6130,7 @@
       </c>
       <c r="O108" s="50">
         <f>O105</f>
-        <v>7.857173767219322E-2</v>
+        <v>7.8914403478215794E-2</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -6055,7 +6145,7 @@
       </c>
       <c r="I110" s="40">
         <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>15086174236.305714</v>
+        <v>14982283174.156906</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -6082,7 +6172,7 @@
       </c>
       <c r="I113" s="40">
         <f>I110+I111-I112</f>
-        <v>16132979236.305714</v>
+        <v>16029088174.156906</v>
       </c>
     </row>
     <row r="114" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -6100,7 +6190,7 @@
       </c>
       <c r="I115" s="58">
         <f>I113/I114</f>
-        <v>50.121861667167522</v>
+        <v>49.79909341902156</v>
       </c>
     </row>
     <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -6109,7 +6199,7 @@
       </c>
       <c r="I116" s="54" cm="1">
         <f t="array" ref="I116">_FV(A1,"Price")</f>
-        <v>94.5</v>
+        <v>93.34</v>
       </c>
     </row>
     <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -6118,7 +6208,7 @@
       </c>
       <c r="I117" s="56">
         <f>I115/I116-1</f>
-        <v>-0.46960992944796276</v>
+        <v>-0.46647639362522442</v>
       </c>
     </row>
     <row r="118" spans="8:9" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Datadog.xlsx
+++ b/Technology/Software/Datadog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463B7FF3-3F57-864C-924C-E9BEE9CB8479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA99CEE-472C-F942-8A6E-9DADDDBB43CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -586,8 +586,8 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -750,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -856,62 +856,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -928,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -973,20 +920,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -995,59 +934,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1056,38 +949,73 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1139,7 +1067,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>DDOG</a:t>
+              <a:t>Datadog</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1149,8 +1077,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.45921779579532757"/>
-          <c:y val="2.7049875604295819E-2"/>
+          <c:x val="0.44469634365011307"/>
+          <c:y val="2.9838372190549294E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1187,9 +1115,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.9643564356435645E-2"/>
-          <c:y val="0.11615667415744696"/>
+          <c:y val="0.14125252660094173"/>
           <c:w val="0.87811221122112193"/>
-          <c:h val="0.74212398676118019"/>
+          <c:h val="0.69750916558386378"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2150,13 +2078,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2228,7 +2156,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2368,11 +2296,11 @@
     <v>Powered by Refinitiv</v>
     <v>120.75</v>
     <v>61.34</v>
-    <v>0.92569999999999997</v>
-    <v>-0.33</v>
-    <v>-3.5230000000000001E-3</v>
-    <v>-0.04</v>
-    <v>-4.2850000000000001E-4</v>
+    <v>0.92820000000000003</v>
+    <v>1.93</v>
+    <v>2.001E-2</v>
+    <v>0.11</v>
+    <v>1.1180000000000001E-3</v>
     <v>USD</v>
     <v>Datadog, Inc. is the observability and security platform for cloud applications. The Company's software as a service (SaaS) platform integrates and automates infrastructure monitoring, application performance monitoring, log management, real-user monitoring, and various other capabilities to provide unified, real-time observability and security for its customers entire technology stack. Its platform consists of products that can be used individually or as a unified solution and includes a marketplace where customers can access products built by its partners on top of the Datadog platform. The Company's products include Infrastructure Monitoring, Application Performance Monitoring (APM), Log Management, Digital Experience Monitoring, Continuous Profiler, Database Monitoring, Network Monitoring, Incident Management, Observability Pipelines, Cloud Cost Management, Universal Service Monitoring, Cloud Security Management, Application Security Management, CI Visibility and others.</v>
     <v>4800</v>
@@ -2380,24 +2308,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>620 8th Avenue, 45th Floor, NEW YORK, NY, 10018 US</v>
-    <v>96.314999999999998</v>
+    <v>100.44</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45103.917836816407</v>
+    <v>45107.999688101561</v>
     <v>0</v>
-    <v>92.75</v>
-    <v>30043821834</v>
+    <v>97.21</v>
+    <v>31666072338</v>
     <v>DATADOG, INC.</v>
     <v>DATADOG, INC.</v>
-    <v>93.1</v>
-    <v>93.67</v>
-    <v>93.34</v>
-    <v>93.3</v>
+    <v>97.92</v>
+    <v>96.45</v>
+    <v>98.38</v>
+    <v>98.49</v>
     <v>321875100</v>
     <v>DDOG</v>
     <v>DATADOG, INC. (XNAS:DDOG)</v>
-    <v>2825224</v>
-    <v>4371724</v>
+    <v>3303474</v>
+    <v>4166000</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2981,10 +2909,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L45" sqref="L45"/>
+      <selection pane="bottomRight" activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3016,19 +2944,19 @@
       <c r="G1" s="8">
         <v>2022</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="24">
         <v>2023</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="24">
         <v>2024</v>
       </c>
-      <c r="J1" s="28">
+      <c r="J1" s="24">
         <v>2025</v>
       </c>
-      <c r="K1" s="28">
+      <c r="K1" s="24">
         <v>2026</v>
       </c>
-      <c r="L1" s="28">
+      <c r="L1" s="24">
         <v>2027</v>
       </c>
     </row>
@@ -3092,19 +3020,19 @@
       <c r="G3" s="1">
         <v>1675100000</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="25">
         <v>2091000000</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="25">
         <v>2646000000</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="25">
         <v>3512000000</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="25">
         <v>4626000000</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="25">
         <v>5721000000</v>
       </c>
       <c r="M3" s="19" t="s">
@@ -3584,21 +3512,21 @@
       <c r="G16" s="1">
         <v>1733795000</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="26">
         <f>(G35+F35+E35+D35+C35)/5</f>
         <v>0.57794247798510179</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N16" s="27">
         <f>O101/G3</f>
-        <v>17.935539271685272</v>
-      </c>
-      <c r="O16" s="31">
+        <v>18.903989217360159</v>
+      </c>
+      <c r="O16" s="27">
         <f>O101/G28</f>
-        <v>-598.95976543062204</v>
-      </c>
-      <c r="P16" s="32">
+        <v>-631.3012826555024</v>
+      </c>
+      <c r="P16" s="28">
         <f>O101/G107</f>
-        <v>84.985267607307122</v>
+        <v>89.574144281196425</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3649,10 +3577,10 @@
       <c r="M18" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="N18" s="73" t="s">
+      <c r="N18" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="O18" s="73" t="s">
+      <c r="O18" s="41" t="s">
         <v>163</v>
       </c>
       <c r="P18" s="20" t="s">
@@ -3681,36 +3609,36 @@
       <c r="G19" s="10">
         <v>9725000</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="33">
         <v>394200000</v>
       </c>
-      <c r="I19" s="59">
+      <c r="I19" s="33">
         <v>525000000</v>
       </c>
-      <c r="J19" s="59">
+      <c r="J19" s="33">
         <v>743800000</v>
       </c>
-      <c r="K19" s="59">
+      <c r="K19" s="33">
         <v>839000000</v>
       </c>
-      <c r="L19" s="59">
+      <c r="L19" s="33">
         <v>1112000000</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="29">
         <f>G40-G56-G61</f>
         <v>1046805000</v>
       </c>
-      <c r="N19" s="74">
+      <c r="N19" s="42">
         <f>O101/H3</f>
-        <v>14.368159652797704</v>
-      </c>
-      <c r="O19" s="74">
+        <v>15.143984857962698</v>
+      </c>
+      <c r="O19" s="42">
         <f>O101/H28</f>
-        <v>73.152719342585826</v>
-      </c>
-      <c r="P19" s="75">
+        <v>77.102684046749445</v>
+      </c>
+      <c r="P19" s="43">
         <f>O101/H106</f>
-        <v>107.8385564752333</v>
+        <v>113.66142260588657</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3781,23 +3709,23 @@
       <c r="G21" s="2">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="H21" s="60">
+      <c r="H21" s="34">
         <f>H19/H3</f>
         <v>0.18852223816355809</v>
       </c>
-      <c r="I21" s="60">
+      <c r="I21" s="34">
         <f t="shared" ref="I21:L21" si="9">I19/I3</f>
         <v>0.1984126984126984</v>
       </c>
-      <c r="J21" s="60">
+      <c r="J21" s="34">
         <f t="shared" si="9"/>
         <v>0.21178815489749431</v>
       </c>
-      <c r="K21" s="60">
+      <c r="K21" s="34">
         <f t="shared" si="9"/>
         <v>0.18136619109381755</v>
       </c>
-      <c r="L21" s="60">
+      <c r="L21" s="34">
         <f t="shared" si="9"/>
         <v>0.19437161335430869</v>
       </c>
@@ -3830,13 +3758,13 @@
       <c r="G22" s="10">
         <v>-58695000</v>
       </c>
-      <c r="O22" s="76">
+      <c r="O22" s="44">
         <f>(-1*G98)/O101</f>
         <v>0</v>
       </c>
-      <c r="P22" s="77">
+      <c r="P22" s="45">
         <f>G107/O101</f>
-        <v>1.1766745321326951E-2</v>
+        <v>1.1163935843592779E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3976,19 +3904,19 @@
       <c r="G28" s="11">
         <v>-50160000</v>
       </c>
-      <c r="H28" s="61">
+      <c r="H28" s="35">
         <v>410700000</v>
       </c>
-      <c r="I28" s="61">
+      <c r="I28" s="35">
         <v>532700000</v>
       </c>
-      <c r="J28" s="61">
+      <c r="J28" s="35">
         <v>711400000</v>
       </c>
-      <c r="K28" s="61">
+      <c r="K28" s="35">
         <v>881200000</v>
       </c>
-      <c r="L28" s="61">
+      <c r="L28" s="35">
         <v>1071000000</v>
       </c>
     </row>
@@ -4060,23 +3988,23 @@
       <c r="G30" s="2">
         <v>-2.9899999999999999E-2</v>
       </c>
-      <c r="H30" s="62">
+      <c r="H30" s="36">
         <f>H28/H3</f>
         <v>0.19641319942611191</v>
       </c>
-      <c r="I30" s="62">
+      <c r="I30" s="36">
         <f t="shared" ref="I30:L30" si="16">I28/I3</f>
         <v>0.20132275132275132</v>
       </c>
-      <c r="J30" s="62">
+      <c r="J30" s="36">
         <f t="shared" si="16"/>
         <v>0.2025626423690205</v>
       </c>
-      <c r="K30" s="62">
+      <c r="K30" s="36">
         <f t="shared" si="16"/>
         <v>0.19048854301772589</v>
       </c>
-      <c r="L30" s="62">
+      <c r="L30" s="36">
         <f t="shared" si="16"/>
         <v>0.18720503408495018</v>
       </c>
@@ -4103,19 +4031,19 @@
       <c r="G31" s="12">
         <v>-0.16</v>
       </c>
-      <c r="H31" s="63">
+      <c r="H31" s="37">
         <v>1.28</v>
       </c>
-      <c r="I31" s="63">
+      <c r="I31" s="37">
         <v>1.66</v>
       </c>
-      <c r="J31" s="63">
+      <c r="J31" s="37">
         <v>2.21</v>
       </c>
-      <c r="K31" s="63">
+      <c r="K31" s="37">
         <v>2.74</v>
       </c>
-      <c r="L31" s="63">
+      <c r="L31" s="37">
         <v>3.33</v>
       </c>
     </row>
@@ -5323,10 +5251,10 @@
       <c r="G83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N83" s="69" t="s">
+      <c r="N83" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="O83" s="70"/>
+      <c r="O83" s="69"/>
     </row>
     <row r="84" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5350,10 +5278,10 @@
       <c r="G84" s="1">
         <v>-1286000</v>
       </c>
-      <c r="N84" s="71" t="s">
+      <c r="N84" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="O84" s="72"/>
+      <c r="O84" s="70"/>
     </row>
     <row r="85" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5377,10 +5305,10 @@
       <c r="G85" s="1">
         <v>117546000</v>
       </c>
-      <c r="N85" s="24" t="s">
+      <c r="N85" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="O85" s="25">
+      <c r="O85" s="54">
         <f>G17</f>
         <v>13166000</v>
       </c>
@@ -5407,10 +5335,10 @@
       <c r="G86" s="1">
         <v>64391000</v>
       </c>
-      <c r="N86" s="24" t="s">
+      <c r="N86" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="O86" s="25">
+      <c r="O86" s="54">
         <f>G56</f>
         <v>22092000</v>
       </c>
@@ -5437,10 +5365,10 @@
       <c r="G87" s="10">
         <v>418407000</v>
       </c>
-      <c r="N87" s="24" t="s">
+      <c r="N87" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="O87" s="25">
+      <c r="O87" s="54">
         <f>G61</f>
         <v>815429000</v>
       </c>
@@ -5467,10 +5395,10 @@
       <c r="G88" s="1">
         <v>-35261000</v>
       </c>
-      <c r="N88" s="34" t="s">
+      <c r="N88" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="O88" s="35">
+      <c r="O88" s="56">
         <f>O85/(O86+O87)</f>
         <v>1.5720202836704989E-2</v>
       </c>
@@ -5503,10 +5431,10 @@
         <f t="shared" si="21"/>
         <v>2.1050086561996299E-2</v>
       </c>
-      <c r="N89" s="24" t="s">
+      <c r="N89" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="O89" s="25">
+      <c r="O89" s="54">
         <f>G27</f>
         <v>12090000</v>
       </c>
@@ -5533,10 +5461,10 @@
       <c r="G90" s="1">
         <v>-45878000</v>
       </c>
-      <c r="N90" s="24" t="s">
+      <c r="N90" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="O90" s="25">
+      <c r="O90" s="54">
         <f>G25</f>
         <v>-38070000</v>
       </c>
@@ -5563,10 +5491,10 @@
       <c r="G91" s="1">
         <v>-1413717000</v>
       </c>
-      <c r="N91" s="34" t="s">
+      <c r="N91" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="O91" s="35">
+      <c r="O91" s="56">
         <f>O89/O90</f>
         <v>-0.31757289204097716</v>
       </c>
@@ -5593,10 +5521,10 @@
       <c r="G92" s="1">
         <v>1139814000</v>
       </c>
-      <c r="N92" s="36" t="s">
+      <c r="N92" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="O92" s="37">
+      <c r="O92" s="56">
         <f>O88*(1-O91)</f>
         <v>2.0712513115028166E-2</v>
       </c>
@@ -5623,10 +5551,10 @@
       <c r="G93" s="1">
         <v>-29628000</v>
       </c>
-      <c r="N93" s="71" t="s">
+      <c r="N93" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="O93" s="72"/>
+      <c r="O93" s="70"/>
     </row>
     <row r="94" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5650,12 +5578,12 @@
       <c r="G94" s="10">
         <v>-384670000</v>
       </c>
-      <c r="N94" s="24" t="s">
+      <c r="N94" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="O94" s="38">
+      <c r="O94" s="57">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5680,12 +5608,12 @@
       <c r="G95" s="1">
         <v>-3000</v>
       </c>
-      <c r="N95" s="24" t="s">
+      <c r="N95" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="O95" s="39" cm="1">
+      <c r="O95" s="58" cm="1">
         <f t="array" ref="O95">_FV(A1,"Beta")</f>
-        <v>0.92569999999999997</v>
+        <v>0.92820000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5710,10 +5638,10 @@
       <c r="G96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N96" s="24" t="s">
+      <c r="N96" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="O96" s="38">
+      <c r="O96" s="57">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5739,12 +5667,12 @@
       <c r="G97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N97" s="36" t="s">
+      <c r="N97" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="O97" s="37">
+      <c r="O97" s="56">
         <f>(O94)+((O95)*(O96-O94))</f>
-        <v>8.0536877000000007E-2</v>
+        <v>8.0735972000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5769,10 +5697,10 @@
       <c r="G98" s="1">
         <v>0</v>
       </c>
-      <c r="N98" s="71" t="s">
+      <c r="N98" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="O98" s="72"/>
+      <c r="O98" s="70"/>
     </row>
     <row r="99" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5796,10 +5724,10 @@
       <c r="G99" s="1">
         <v>36026000</v>
       </c>
-      <c r="N99" s="24" t="s">
+      <c r="N99" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="O99" s="25">
+      <c r="O99" s="54">
         <f>O86+O87</f>
         <v>837521000</v>
       </c>
@@ -5826,12 +5754,12 @@
       <c r="G100" s="10">
         <v>36023000</v>
       </c>
-      <c r="N100" s="34" t="s">
+      <c r="N100" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="O100" s="35">
+      <c r="O100" s="56">
         <f>O99/O103</f>
-        <v>2.7120614686415096E-2</v>
+        <v>2.5767028011049256E-2</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5856,12 +5784,12 @@
       <c r="G101" s="1">
         <v>-1935000</v>
       </c>
-      <c r="N101" s="24" t="s">
+      <c r="N101" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="O101" s="40" cm="1">
+      <c r="O101" s="47" cm="1">
         <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
-        <v>30043821834</v>
+        <v>31666072338</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5886,12 +5814,12 @@
       <c r="G102" s="10">
         <v>67825000</v>
       </c>
-      <c r="N102" s="34" t="s">
+      <c r="N102" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="O102" s="35">
+      <c r="O102" s="56">
         <f>O101/O103</f>
-        <v>0.97287938531358487</v>
+        <v>0.97423297198895076</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5916,12 +5844,12 @@
       <c r="G103" s="1">
         <v>274463000</v>
       </c>
-      <c r="N103" s="36" t="s">
+      <c r="N103" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="O103" s="41">
+      <c r="O103" s="59">
         <f>O99+O101</f>
-        <v>30881342834</v>
+        <v>32503593338</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5946,10 +5874,10 @@
       <c r="G104" s="11">
         <v>342288000</v>
       </c>
-      <c r="N104" s="71" t="s">
+      <c r="N104" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="O104" s="72"/>
+      <c r="O104" s="70"/>
     </row>
     <row r="105" spans="1:15" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5979,35 +5907,35 @@
         <f>(G22*(1-0.2))+G77+G88+G81</f>
         <v>-41195000</v>
       </c>
-      <c r="H105" s="42">
+      <c r="H105" s="30">
         <f>G105*(1+$O$106)</f>
         <v>-52687557.635464095</v>
       </c>
-      <c r="I105" s="42">
+      <c r="I105" s="30">
         <f t="shared" ref="I105:L105" si="23">H105*(1+$O$106)</f>
         <v>-67386302.453947112</v>
       </c>
-      <c r="J105" s="42">
+      <c r="J105" s="30">
         <f t="shared" si="23"/>
         <v>-86185694.72953403</v>
       </c>
-      <c r="K105" s="42">
+      <c r="K105" s="30">
         <f t="shared" si="23"/>
         <v>-110229730.75409245</v>
       </c>
-      <c r="L105" s="42">
+      <c r="L105" s="30">
         <f t="shared" si="23"/>
         <v>-140981558.25337869</v>
       </c>
-      <c r="M105" s="43" t="s">
+      <c r="M105" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="N105" s="26" t="s">
+      <c r="N105" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="O105" s="27">
+      <c r="O105" s="61">
         <f>(O100*O92)+(O102*O97)</f>
-        <v>7.8914403478215794E-2</v>
+        <v>7.9189345853590873E-2</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -6035,34 +5963,34 @@
         <f>(G107/F107)-1</f>
         <v>0.41113683538240453</v>
       </c>
-      <c r="H106" s="65">
+      <c r="H106" s="39">
         <v>278600000</v>
       </c>
-      <c r="I106" s="65">
+      <c r="I106" s="39">
         <v>369000000</v>
       </c>
-      <c r="J106" s="65">
+      <c r="J106" s="39">
         <v>573900000</v>
       </c>
-      <c r="K106" s="65">
+      <c r="K106" s="39">
         <v>826900000</v>
       </c>
-      <c r="L106" s="65">
+      <c r="L106" s="39">
         <v>974550000</v>
       </c>
-      <c r="M106" s="43" t="s">
+      <c r="M106" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="N106" s="44" t="s">
+      <c r="N106" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="O106" s="45">
+      <c r="O106" s="63">
         <f>(SUM(H4:L4)/5)</f>
         <v>0.27897943040330364</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="64" t="s">
+      <c r="A107" s="38" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1">
@@ -6083,139 +6011,139 @@
       <c r="G107" s="1">
         <v>353518000</v>
       </c>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="43"/>
-      <c r="K107" s="43"/>
-      <c r="L107" s="66">
+      <c r="H107" s="31"/>
+      <c r="I107" s="31"/>
+      <c r="J107" s="31"/>
+      <c r="K107" s="31"/>
+      <c r="L107" s="40">
         <f>L106*(1+O107)/(O108-O107)</f>
-        <v>18527771533.327133</v>
-      </c>
-      <c r="M107" s="46" t="s">
+        <v>18433766532.24181</v>
+      </c>
+      <c r="M107" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="N107" s="47" t="s">
+      <c r="N107" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="O107" s="48">
+      <c r="O107" s="65">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="H108" s="66">
+      <c r="H108" s="40">
         <f t="shared" ref="H108:K108" si="24">H107+H106</f>
         <v>278600000</v>
       </c>
-      <c r="I108" s="66">
+      <c r="I108" s="40">
         <f t="shared" si="24"/>
         <v>369000000</v>
       </c>
-      <c r="J108" s="66">
+      <c r="J108" s="40">
         <f t="shared" si="24"/>
         <v>573900000</v>
       </c>
-      <c r="K108" s="66">
+      <c r="K108" s="40">
         <f t="shared" si="24"/>
         <v>826900000</v>
       </c>
-      <c r="L108" s="66">
+      <c r="L108" s="40">
         <f>L107+L106</f>
-        <v>19502321533.327133</v>
-      </c>
-      <c r="M108" s="46" t="s">
+        <v>19408316532.24181</v>
+      </c>
+      <c r="M108" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="N108" s="49" t="s">
+      <c r="N108" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="O108" s="50">
+      <c r="O108" s="63">
         <f>O105</f>
-        <v>7.8914403478215794E-2</v>
+        <v>7.9189345853590873E-2</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="H109" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="I109" s="68"/>
+      <c r="I109" s="67"/>
     </row>
     <row r="110" spans="1:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="H110" s="51" t="s">
+      <c r="H110" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="I110" s="40">
+      <c r="I110" s="47">
         <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>14982283174.156906</v>
+        <v>14899882038.551233</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="H111" s="51" t="s">
+      <c r="H111" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="I111" s="40">
+      <c r="I111" s="47">
         <f>G40</f>
         <v>1884326000</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="H112" s="51" t="s">
+      <c r="H112" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="I112" s="40">
+      <c r="I112" s="47">
         <f>O99</f>
         <v>837521000</v>
       </c>
     </row>
     <row r="113" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H113" s="51" t="s">
+      <c r="H113" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="I113" s="40">
+      <c r="I113" s="47">
         <f>I110+I111-I112</f>
-        <v>16029088174.156906</v>
+        <v>15946687038.551233</v>
       </c>
     </row>
     <row r="114" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H114" s="51" t="s">
+      <c r="H114" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="I114" s="52" cm="1">
+      <c r="I114" s="46" cm="1">
         <f t="array" ref="I114">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>321875100</v>
       </c>
     </row>
     <row r="115" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H115" s="53" t="s">
+      <c r="H115" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="I115" s="58">
+      <c r="I115" s="49">
         <f>I113/I114</f>
-        <v>49.79909341902156</v>
+        <v>49.543089970461317</v>
       </c>
     </row>
     <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H116" s="51" t="s">
+      <c r="H116" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="I116" s="54" cm="1">
+      <c r="I116" s="50" cm="1">
         <f t="array" ref="I116">_FV(A1,"Price")</f>
-        <v>93.34</v>
+        <v>98.38</v>
       </c>
     </row>
     <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H117" s="55" t="s">
+      <c r="H117" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="I117" s="56">
+      <c r="I117" s="51">
         <f>I115/I116-1</f>
-        <v>-0.46647639362522442</v>
+        <v>-0.49641095781194022</v>
       </c>
     </row>
     <row r="118" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H118" s="55" t="s">
+      <c r="H118" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="I118" s="57" t="str">
+      <c r="I118" s="52" t="str">
         <f>IF(I115&gt;I116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Datadog.xlsx
+++ b/Technology/Software/Datadog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA99CEE-472C-F942-8A6E-9DADDDBB43CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7EF636-9B96-4046-92DB-7D00376D1AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2121,7 +2121,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2135,10 +2134,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2152,14 +2153,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2169,6 +2170,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2296,11 +2298,11 @@
     <v>Powered by Refinitiv</v>
     <v>120.75</v>
     <v>61.34</v>
-    <v>0.92820000000000003</v>
-    <v>1.93</v>
-    <v>2.001E-2</v>
-    <v>0.11</v>
-    <v>1.1180000000000001E-3</v>
+    <v>0.92589999999999995</v>
+    <v>0.94</v>
+    <v>9.6830000000000006E-3</v>
+    <v>0.03</v>
+    <v>3.0609999999999996E-4</v>
     <v>USD</v>
     <v>Datadog, Inc. is the observability and security platform for cloud applications. The Company's software as a service (SaaS) platform integrates and automates infrastructure monitoring, application performance monitoring, log management, real-user monitoring, and various other capabilities to provide unified, real-time observability and security for its customers entire technology stack. Its platform consists of products that can be used individually or as a unified solution and includes a marketplace where customers can access products built by its partners on top of the Datadog platform. The Company's products include Infrastructure Monitoring, Application Performance Monitoring (APM), Log Management, Digital Experience Monitoring, Continuous Profiler, Database Monitoring, Network Monitoring, Incident Management, Observability Pipelines, Cloud Cost Management, Universal Service Monitoring, Cloud Security Management, Application Security Management, CI Visibility and others.</v>
     <v>4800</v>
@@ -2308,24 +2310,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>620 8th Avenue, 45th Floor, NEW YORK, NY, 10018 US</v>
-    <v>100.44</v>
+    <v>101.5</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45107.999688101561</v>
+    <v>45114.998811700782</v>
     <v>0</v>
-    <v>97.21</v>
-    <v>31666072338</v>
+    <v>97.47</v>
+    <v>31550190000</v>
     <v>DATADOG, INC.</v>
     <v>DATADOG, INC.</v>
-    <v>97.92</v>
-    <v>96.45</v>
-    <v>98.38</v>
-    <v>98.49</v>
+    <v>97.5</v>
+    <v>97.08</v>
+    <v>98.02</v>
+    <v>98.05</v>
     <v>321875100</v>
     <v>DDOG</v>
     <v>DATADOG, INC. (XNAS:DDOG)</v>
-    <v>3303474</v>
-    <v>4166000</v>
+    <v>4973326</v>
+    <v>3918417</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2912,7 +2914,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="F99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H129" sqref="H129"/>
+      <selection pane="bottomRight" activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3518,15 +3520,15 @@
       </c>
       <c r="N16" s="27">
         <f>O101/G3</f>
-        <v>18.903989217360159</v>
+        <v>18.834809862097785</v>
       </c>
       <c r="O16" s="27">
         <f>O101/G28</f>
-        <v>-631.3012826555024</v>
+        <v>-628.99102870813397</v>
       </c>
       <c r="P16" s="28">
         <f>O101/G107</f>
-        <v>89.574144281196425</v>
+        <v>89.246346720676172</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3630,15 +3632,15 @@
       </c>
       <c r="N19" s="42">
         <f>O101/H3</f>
-        <v>15.143984857962698</v>
+        <v>15.088565279770444</v>
       </c>
       <c r="O19" s="42">
         <f>O101/H28</f>
-        <v>77.102684046749445</v>
+        <v>76.820525931336746</v>
       </c>
       <c r="P19" s="43">
         <f>O101/H106</f>
-        <v>113.66142260588657</v>
+        <v>113.24547738693467</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3764,7 +3766,7 @@
       </c>
       <c r="P22" s="45">
         <f>G107/O101</f>
-        <v>1.1163935843592779E-2</v>
+        <v>1.1204940445683528E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5583,7 +5585,7 @@
       </c>
       <c r="O94" s="57">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5613,7 +5615,7 @@
       </c>
       <c r="O95" s="58" cm="1">
         <f t="array" ref="O95">_FV(A1,"Beta")</f>
-        <v>0.92820000000000003</v>
+        <v>0.92589999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5672,7 +5674,7 @@
       </c>
       <c r="O97" s="56">
         <f>(O94)+((O95)*(O96-O94))</f>
-        <v>8.0735972000000003E-2</v>
+        <v>8.0769981000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5759,7 +5761,7 @@
       </c>
       <c r="O100" s="56">
         <f>O99/O103</f>
-        <v>2.5767028011049256E-2</v>
+        <v>2.5859221727648488E-2</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5789,7 +5791,7 @@
       </c>
       <c r="O101" s="47" cm="1">
         <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
-        <v>31666072338</v>
+        <v>31550190000</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5819,7 +5821,7 @@
       </c>
       <c r="O102" s="56">
         <f>O101/O103</f>
-        <v>0.97423297198895076</v>
+        <v>0.97414077827235146</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5849,7 +5851,7 @@
       </c>
       <c r="O103" s="59">
         <f>O99+O101</f>
-        <v>32503593338</v>
+        <v>32387711000</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5935,7 +5937,7 @@
       </c>
       <c r="O105" s="61">
         <f>(O100*O92)+(O102*O97)</f>
-        <v>7.9189345853590873E-2</v>
+        <v>7.9216941621561385E-2</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -6017,7 +6019,7 @@
       <c r="K107" s="31"/>
       <c r="L107" s="40">
         <f>L106*(1+O107)/(O108-O107)</f>
-        <v>18433766532.24181</v>
+        <v>18424383967.884029</v>
       </c>
       <c r="M107" s="32" t="s">
         <v>144</v>
@@ -6048,7 +6050,7 @@
       </c>
       <c r="L108" s="40">
         <f>L107+L106</f>
-        <v>19408316532.24181</v>
+        <v>19398933967.884029</v>
       </c>
       <c r="M108" s="32" t="s">
         <v>141</v>
@@ -6058,7 +6060,7 @@
       </c>
       <c r="O108" s="63">
         <f>O105</f>
-        <v>7.9189345853590873E-2</v>
+        <v>7.9216941621561385E-2</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -6073,7 +6075,7 @@
       </c>
       <c r="I110" s="47">
         <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>14899882038.551233</v>
+        <v>14891657998.181257</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -6100,7 +6102,7 @@
       </c>
       <c r="I113" s="47">
         <f>I110+I111-I112</f>
-        <v>15946687038.551233</v>
+        <v>15938462998.181257</v>
       </c>
     </row>
     <row r="114" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -6118,7 +6120,7 @@
       </c>
       <c r="I115" s="49">
         <f>I113/I114</f>
-        <v>49.543089970461317</v>
+        <v>49.517539561715886</v>
       </c>
     </row>
     <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -6127,7 +6129,7 @@
       </c>
       <c r="I116" s="50" cm="1">
         <f t="array" ref="I116">_FV(A1,"Price")</f>
-        <v>98.38</v>
+        <v>98.02</v>
       </c>
     </row>
     <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -6136,7 +6138,7 @@
       </c>
       <c r="I117" s="51">
         <f>I115/I116-1</f>
-        <v>-0.49641095781194022</v>
+        <v>-0.49482208159849128</v>
       </c>
     </row>
     <row r="118" spans="8:9" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Datadog.xlsx
+++ b/Technology/Software/Datadog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7EF636-9B96-4046-92DB-7D00376D1AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF4B8EF-18C6-3D43-9981-7210118A2EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -875,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -923,12 +923,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1115,9 +1109,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.9643564356435645E-2"/>
-          <c:y val="0.14125252660094173"/>
+          <c:y val="0.16366157973886622"/>
           <c:w val="0.87811221122112193"/>
-          <c:h val="0.69750916558386378"/>
+          <c:h val="0.67510023538237163"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2083,8 +2077,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2119,8 +2113,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2129,21 +2122,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2153,24 +2147,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2299,10 +2281,8 @@
     <v>120.75</v>
     <v>61.34</v>
     <v>0.92589999999999995</v>
-    <v>0.94</v>
-    <v>9.6830000000000006E-3</v>
-    <v>0.03</v>
-    <v>3.0609999999999996E-4</v>
+    <v>3.43</v>
+    <v>3.4992999999999996E-2</v>
     <v>USD</v>
     <v>Datadog, Inc. is the observability and security platform for cloud applications. The Company's software as a service (SaaS) platform integrates and automates infrastructure monitoring, application performance monitoring, log management, real-user monitoring, and various other capabilities to provide unified, real-time observability and security for its customers entire technology stack. Its platform consists of products that can be used individually or as a unified solution and includes a marketplace where customers can access products built by its partners on top of the Datadog platform. The Company's products include Infrastructure Monitoring, Application Performance Monitoring (APM), Log Management, Digital Experience Monitoring, Continuous Profiler, Database Monitoring, Network Monitoring, Incident Management, Observability Pipelines, Cloud Cost Management, Universal Service Monitoring, Cloud Security Management, Application Security Management, CI Visibility and others.</v>
     <v>4800</v>
@@ -2310,24 +2290,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>620 8th Avenue, 45th Floor, NEW YORK, NY, 10018 US</v>
-    <v>101.5</v>
+    <v>102.4911</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.998811700782</v>
+    <v>45117.999957383596</v>
     <v>0</v>
-    <v>97.47</v>
-    <v>31550190000</v>
+    <v>96.590100000000007</v>
+    <v>32654228895</v>
     <v>DATADOG, INC.</v>
     <v>DATADOG, INC.</v>
-    <v>97.5</v>
-    <v>97.08</v>
+    <v>97.65</v>
     <v>98.02</v>
-    <v>98.05</v>
+    <v>101.45</v>
     <v>321875100</v>
     <v>DDOG</v>
     <v>DATADOG, INC. (XNAS:DDOG)</v>
-    <v>4973326</v>
-    <v>3918417</v>
+    <v>588</v>
+    <v>3924150</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2359,8 +2338,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2380,7 +2357,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2397,7 +2373,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2408,16 +2384,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2481,19 +2454,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2537,9 +2504,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2547,9 +2511,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2911,10 +2872,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J101" sqref="J101"/>
+      <selection pane="bottomRight" activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3026,10 +2987,10 @@
         <v>2091000000</v>
       </c>
       <c r="I3" s="25">
-        <v>2646000000</v>
+        <v>2650000000</v>
       </c>
       <c r="J3" s="25">
-        <v>3512000000</v>
+        <v>3528000000</v>
       </c>
       <c r="K3" s="25">
         <v>4626000000</v>
@@ -3081,15 +3042,15 @@
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.26542324246771876</v>
+        <v>0.26733620277379244</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.3272864701436129</v>
+        <v>0.33132075471698119</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.31719817767653757</v>
+        <v>0.31122448979591844</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
@@ -3518,17 +3479,17 @@
         <f>(G35+F35+E35+D35+C35)/5</f>
         <v>0.57794247798510179</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="40">
         <f>O101/G3</f>
-        <v>18.834809862097785</v>
-      </c>
-      <c r="O16" s="27">
+        <v>19.493898212047043</v>
+      </c>
+      <c r="O16" s="40">
         <f>O101/G28</f>
-        <v>-628.99102870813397</v>
-      </c>
-      <c r="P16" s="28">
+        <v>-651.00137350478474</v>
+      </c>
+      <c r="P16" s="41">
         <f>O101/G107</f>
-        <v>89.246346720676172</v>
+        <v>92.369352890093296</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3579,10 +3540,10 @@
       <c r="M18" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="N18" s="41" t="s">
+      <c r="N18" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="O18" s="41" t="s">
+      <c r="O18" s="39" t="s">
         <v>163</v>
       </c>
       <c r="P18" s="20" t="s">
@@ -3611,36 +3572,36 @@
       <c r="G19" s="10">
         <v>9725000</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="31">
         <v>394200000</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="31">
         <v>525000000</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="31">
         <v>743800000</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="31">
         <v>839000000</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="31">
         <v>1112000000</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="27">
         <f>G40-G56-G61</f>
         <v>1046805000</v>
       </c>
-      <c r="N19" s="42">
+      <c r="N19" s="40">
         <f>O101/H3</f>
-        <v>15.088565279770444</v>
-      </c>
-      <c r="O19" s="42">
+        <v>15.616560925394548</v>
+      </c>
+      <c r="O19" s="40">
         <f>O101/H28</f>
-        <v>76.820525931336746</v>
-      </c>
-      <c r="P19" s="43">
+        <v>79.50871413440467</v>
+      </c>
+      <c r="P19" s="41">
         <f>O101/H106</f>
-        <v>113.24547738693467</v>
+        <v>117.20828749102657</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3711,23 +3672,23 @@
       <c r="G21" s="2">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="32">
         <f>H19/H3</f>
         <v>0.18852223816355809</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="32">
         <f t="shared" ref="I21:L21" si="9">I19/I3</f>
-        <v>0.1984126984126984</v>
-      </c>
-      <c r="J21" s="34">
+        <v>0.19811320754716982</v>
+      </c>
+      <c r="J21" s="32">
         <f t="shared" si="9"/>
-        <v>0.21178815489749431</v>
-      </c>
-      <c r="K21" s="34">
+        <v>0.21082766439909298</v>
+      </c>
+      <c r="K21" s="32">
         <f t="shared" si="9"/>
         <v>0.18136619109381755</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="32">
         <f t="shared" si="9"/>
         <v>0.19437161335430869</v>
       </c>
@@ -3760,13 +3721,13 @@
       <c r="G22" s="10">
         <v>-58695000</v>
       </c>
-      <c r="O22" s="44">
+      <c r="O22" s="42">
         <f>(-1*G98)/O101</f>
         <v>0</v>
       </c>
-      <c r="P22" s="45">
+      <c r="P22" s="43">
         <f>G107/O101</f>
-        <v>1.1204940445683528E-2</v>
+        <v>1.0826101609587557E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3906,19 +3867,19 @@
       <c r="G28" s="11">
         <v>-50160000</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="33">
         <v>410700000</v>
       </c>
-      <c r="I28" s="35">
+      <c r="I28" s="33">
         <v>532700000</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="33">
         <v>711400000</v>
       </c>
-      <c r="K28" s="35">
+      <c r="K28" s="33">
         <v>881200000</v>
       </c>
-      <c r="L28" s="35">
+      <c r="L28" s="33">
         <v>1071000000</v>
       </c>
     </row>
@@ -3990,23 +3951,23 @@
       <c r="G30" s="2">
         <v>-2.9899999999999999E-2</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="34">
         <f>H28/H3</f>
         <v>0.19641319942611191</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="34">
         <f t="shared" ref="I30:L30" si="16">I28/I3</f>
-        <v>0.20132275132275132</v>
-      </c>
-      <c r="J30" s="36">
+        <v>0.2010188679245283</v>
+      </c>
+      <c r="J30" s="34">
         <f t="shared" si="16"/>
-        <v>0.2025626423690205</v>
-      </c>
-      <c r="K30" s="36">
+        <v>0.20164399092970522</v>
+      </c>
+      <c r="K30" s="34">
         <f t="shared" si="16"/>
         <v>0.19048854301772589</v>
       </c>
-      <c r="L30" s="36">
+      <c r="L30" s="34">
         <f t="shared" si="16"/>
         <v>0.18720503408495018</v>
       </c>
@@ -4033,19 +3994,19 @@
       <c r="G31" s="12">
         <v>-0.16</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="35">
         <v>1.28</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="35">
         <v>1.66</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="35">
         <v>2.21</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="35">
         <v>2.74</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L31" s="35">
         <v>3.33</v>
       </c>
     </row>
@@ -5253,10 +5214,10 @@
       <c r="G83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N83" s="68" t="s">
+      <c r="N83" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="O83" s="69"/>
+      <c r="O83" s="67"/>
     </row>
     <row r="84" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5280,10 +5241,10 @@
       <c r="G84" s="1">
         <v>-1286000</v>
       </c>
-      <c r="N84" s="70" t="s">
+      <c r="N84" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="O84" s="70"/>
+      <c r="O84" s="68"/>
     </row>
     <row r="85" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5307,10 +5268,10 @@
       <c r="G85" s="1">
         <v>117546000</v>
       </c>
-      <c r="N85" s="53" t="s">
+      <c r="N85" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="O85" s="54">
+      <c r="O85" s="52">
         <f>G17</f>
         <v>13166000</v>
       </c>
@@ -5337,10 +5298,10 @@
       <c r="G86" s="1">
         <v>64391000</v>
       </c>
-      <c r="N86" s="53" t="s">
+      <c r="N86" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="O86" s="54">
+      <c r="O86" s="52">
         <f>G56</f>
         <v>22092000</v>
       </c>
@@ -5367,10 +5328,10 @@
       <c r="G87" s="10">
         <v>418407000</v>
       </c>
-      <c r="N87" s="53" t="s">
+      <c r="N87" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="O87" s="54">
+      <c r="O87" s="52">
         <f>G61</f>
         <v>815429000</v>
       </c>
@@ -5397,10 +5358,10 @@
       <c r="G88" s="1">
         <v>-35261000</v>
       </c>
-      <c r="N88" s="55" t="s">
+      <c r="N88" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="O88" s="56">
+      <c r="O88" s="54">
         <f>O85/(O86+O87)</f>
         <v>1.5720202836704989E-2</v>
       </c>
@@ -5433,10 +5394,10 @@
         <f t="shared" si="21"/>
         <v>2.1050086561996299E-2</v>
       </c>
-      <c r="N89" s="53" t="s">
+      <c r="N89" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="O89" s="54">
+      <c r="O89" s="52">
         <f>G27</f>
         <v>12090000</v>
       </c>
@@ -5463,10 +5424,10 @@
       <c r="G90" s="1">
         <v>-45878000</v>
       </c>
-      <c r="N90" s="53" t="s">
+      <c r="N90" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O90" s="54">
+      <c r="O90" s="52">
         <f>G25</f>
         <v>-38070000</v>
       </c>
@@ -5493,10 +5454,10 @@
       <c r="G91" s="1">
         <v>-1413717000</v>
       </c>
-      <c r="N91" s="55" t="s">
+      <c r="N91" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="O91" s="56">
+      <c r="O91" s="54">
         <f>O89/O90</f>
         <v>-0.31757289204097716</v>
       </c>
@@ -5523,10 +5484,10 @@
       <c r="G92" s="1">
         <v>1139814000</v>
       </c>
-      <c r="N92" s="55" t="s">
+      <c r="N92" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="O92" s="56">
+      <c r="O92" s="54">
         <f>O88*(1-O91)</f>
         <v>2.0712513115028166E-2</v>
       </c>
@@ -5553,10 +5514,10 @@
       <c r="G93" s="1">
         <v>-29628000</v>
       </c>
-      <c r="N93" s="70" t="s">
+      <c r="N93" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="O93" s="70"/>
+      <c r="O93" s="68"/>
     </row>
     <row r="94" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5580,12 +5541,12 @@
       <c r="G94" s="10">
         <v>-384670000</v>
       </c>
-      <c r="N94" s="53" t="s">
+      <c r="N94" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="O94" s="57">
+      <c r="O94" s="55">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5610,10 +5571,10 @@
       <c r="G95" s="1">
         <v>-3000</v>
       </c>
-      <c r="N95" s="53" t="s">
+      <c r="N95" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="O95" s="58" cm="1">
+      <c r="O95" s="56" cm="1">
         <f t="array" ref="O95">_FV(A1,"Beta")</f>
         <v>0.92589999999999995</v>
       </c>
@@ -5640,10 +5601,10 @@
       <c r="G96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N96" s="53" t="s">
+      <c r="N96" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="O96" s="57">
+      <c r="O96" s="55">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5669,12 +5630,12 @@
       <c r="G97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N97" s="55" t="s">
+      <c r="N97" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="O97" s="56">
+      <c r="O97" s="54">
         <f>(O94)+((O95)*(O96-O94))</f>
-        <v>8.0769981000000005E-2</v>
+        <v>8.0775168000000008E-2</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5699,10 +5660,10 @@
       <c r="G98" s="1">
         <v>0</v>
       </c>
-      <c r="N98" s="70" t="s">
+      <c r="N98" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="O98" s="70"/>
+      <c r="O98" s="68"/>
     </row>
     <row r="99" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5726,10 +5687,10 @@
       <c r="G99" s="1">
         <v>36026000</v>
       </c>
-      <c r="N99" s="53" t="s">
+      <c r="N99" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="O99" s="54">
+      <c r="O99" s="52">
         <f>O86+O87</f>
         <v>837521000</v>
       </c>
@@ -5756,12 +5717,12 @@
       <c r="G100" s="10">
         <v>36023000</v>
       </c>
-      <c r="N100" s="55" t="s">
+      <c r="N100" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="O100" s="56">
+      <c r="O100" s="54">
         <f>O99/O103</f>
-        <v>2.5859221727648488E-2</v>
+        <v>2.5006785331483497E-2</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5786,12 +5747,12 @@
       <c r="G101" s="1">
         <v>-1935000</v>
       </c>
-      <c r="N101" s="53" t="s">
+      <c r="N101" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O101" s="47" cm="1">
+      <c r="O101" s="45" cm="1">
         <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
-        <v>31550190000</v>
+        <v>32654228895</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5816,12 +5777,12 @@
       <c r="G102" s="10">
         <v>67825000</v>
       </c>
-      <c r="N102" s="55" t="s">
+      <c r="N102" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="O102" s="56">
+      <c r="O102" s="54">
         <f>O101/O103</f>
-        <v>0.97414077827235146</v>
+        <v>0.97499321466851652</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5846,12 +5807,12 @@
       <c r="G103" s="1">
         <v>274463000</v>
       </c>
-      <c r="N103" s="55" t="s">
+      <c r="N103" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="O103" s="59">
+      <c r="O103" s="57">
         <f>O99+O101</f>
-        <v>32387711000</v>
+        <v>33491749895</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5876,10 +5837,10 @@
       <c r="G104" s="11">
         <v>342288000</v>
       </c>
-      <c r="N104" s="70" t="s">
+      <c r="N104" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="O104" s="70"/>
+      <c r="O104" s="68"/>
     </row>
     <row r="105" spans="1:15" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5909,35 +5870,35 @@
         <f>(G22*(1-0.2))+G77+G88+G81</f>
         <v>-41195000</v>
       </c>
-      <c r="H105" s="30">
+      <c r="H105" s="28">
         <f>G105*(1+$O$106)</f>
-        <v>-52687557.635464095</v>
-      </c>
-      <c r="I105" s="30">
+        <v>-52687339.771577395</v>
+      </c>
+      <c r="I105" s="28">
         <f t="shared" ref="I105:L105" si="23">H105*(1+$O$106)</f>
-        <v>-67386302.453947112</v>
-      </c>
-      <c r="J105" s="30">
+        <v>-67385745.168239862</v>
+      </c>
+      <c r="J105" s="28">
         <f t="shared" si="23"/>
-        <v>-86185694.72953403</v>
-      </c>
-      <c r="K105" s="30">
+        <v>-86184625.596309826</v>
+      </c>
+      <c r="K105" s="28">
         <f t="shared" si="23"/>
-        <v>-110229730.75409245</v>
-      </c>
-      <c r="L105" s="30">
+        <v>-110227907.55865911</v>
+      </c>
+      <c r="L105" s="28">
         <f t="shared" si="23"/>
-        <v>-140981558.25337869</v>
-      </c>
-      <c r="M105" s="31" t="s">
+        <v>-140978643.47258398</v>
+      </c>
+      <c r="M105" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="N105" s="60" t="s">
+      <c r="N105" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="O105" s="61">
+      <c r="O105" s="59">
         <f>(O100*O92)+(O102*O97)</f>
-        <v>7.9216941621561385E-2</v>
+        <v>7.9273194082852549E-2</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5965,34 +5926,34 @@
         <f>(G107/F107)-1</f>
         <v>0.41113683538240453</v>
       </c>
-      <c r="H106" s="39">
+      <c r="H106" s="37">
         <v>278600000</v>
       </c>
-      <c r="I106" s="39">
-        <v>369000000</v>
-      </c>
-      <c r="J106" s="39">
-        <v>573900000</v>
-      </c>
-      <c r="K106" s="39">
-        <v>826900000</v>
-      </c>
-      <c r="L106" s="39">
-        <v>974550000</v>
-      </c>
-      <c r="M106" s="31" t="s">
+      <c r="I106" s="37">
+        <v>371000000</v>
+      </c>
+      <c r="J106" s="37">
+        <v>576000000</v>
+      </c>
+      <c r="K106" s="37">
+        <v>824000000</v>
+      </c>
+      <c r="L106" s="37">
+        <v>950000000</v>
+      </c>
+      <c r="M106" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="N106" s="62" t="s">
+      <c r="N106" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="O106" s="63">
+      <c r="O106" s="61">
         <f>(SUM(H4:L4)/5)</f>
-        <v>0.27897943040330364</v>
+        <v>0.27897414180306823</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="38" t="s">
+      <c r="A107" s="36" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1">
@@ -6013,139 +5974,139 @@
       <c r="G107" s="1">
         <v>353518000</v>
       </c>
-      <c r="H107" s="31"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="31"/>
-      <c r="K107" s="31"/>
-      <c r="L107" s="40">
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="38">
         <f>L106*(1+O107)/(O108-O107)</f>
-        <v>18424383967.884029</v>
-      </c>
-      <c r="M107" s="32" t="s">
+        <v>17941637975.34174</v>
+      </c>
+      <c r="M107" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="N107" s="64" t="s">
+      <c r="N107" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="O107" s="65">
+      <c r="O107" s="63">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="H108" s="40">
+      <c r="H108" s="38">
         <f t="shared" ref="H108:K108" si="24">H107+H106</f>
         <v>278600000</v>
       </c>
-      <c r="I108" s="40">
+      <c r="I108" s="38">
         <f t="shared" si="24"/>
-        <v>369000000</v>
-      </c>
-      <c r="J108" s="40">
+        <v>371000000</v>
+      </c>
+      <c r="J108" s="38">
         <f t="shared" si="24"/>
-        <v>573900000</v>
-      </c>
-      <c r="K108" s="40">
+        <v>576000000</v>
+      </c>
+      <c r="K108" s="38">
         <f t="shared" si="24"/>
-        <v>826900000</v>
-      </c>
-      <c r="L108" s="40">
+        <v>824000000</v>
+      </c>
+      <c r="L108" s="38">
         <f>L107+L106</f>
-        <v>19398933967.884029</v>
-      </c>
-      <c r="M108" s="32" t="s">
+        <v>18891637975.34174</v>
+      </c>
+      <c r="M108" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="N108" s="66" t="s">
+      <c r="N108" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="O108" s="63">
+      <c r="O108" s="61">
         <f>O105</f>
-        <v>7.9216941621561385E-2</v>
+        <v>7.9273194082852549E-2</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="H109" s="67" t="s">
+      <c r="H109" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="I109" s="67"/>
+      <c r="I109" s="65"/>
     </row>
     <row r="110" spans="1:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="H110" s="46" t="s">
+      <c r="H110" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="I110" s="47">
+      <c r="I110" s="45">
         <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>14891657998.181257</v>
+        <v>14542789136.109276</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="H111" s="46" t="s">
+      <c r="H111" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="I111" s="47">
+      <c r="I111" s="45">
         <f>G40</f>
         <v>1884326000</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="H112" s="46" t="s">
+      <c r="H112" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="I112" s="47">
+      <c r="I112" s="45">
         <f>O99</f>
         <v>837521000</v>
       </c>
     </row>
     <row r="113" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H113" s="46" t="s">
+      <c r="H113" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="I113" s="47">
+      <c r="I113" s="45">
         <f>I110+I111-I112</f>
-        <v>15938462998.181257</v>
+        <v>15589594136.109276</v>
       </c>
     </row>
     <row r="114" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H114" s="46" t="s">
+      <c r="H114" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="I114" s="46" cm="1">
+      <c r="I114" s="44" cm="1">
         <f t="array" ref="I114">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>321875100</v>
       </c>
     </row>
     <row r="115" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H115" s="48" t="s">
+      <c r="H115" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="I115" s="49">
+      <c r="I115" s="47">
         <f>I113/I114</f>
-        <v>49.517539561715886</v>
+        <v>48.43367547259566</v>
       </c>
     </row>
     <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H116" s="46" t="s">
+      <c r="H116" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="I116" s="50" cm="1">
+      <c r="I116" s="48" cm="1">
         <f t="array" ref="I116">_FV(A1,"Price")</f>
-        <v>98.02</v>
+        <v>101.45</v>
       </c>
     </row>
     <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H117" s="48" t="s">
+      <c r="H117" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="I117" s="51">
+      <c r="I117" s="49">
         <f>I115/I116-1</f>
-        <v>-0.49482208159849128</v>
+        <v>-0.52258575187190082</v>
       </c>
     </row>
     <row r="118" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H118" s="48" t="s">
+      <c r="H118" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="I118" s="52" t="str">
+      <c r="I118" s="50" t="str">
         <f>IF(I115&gt;I116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Datadog.xlsx
+++ b/Technology/Software/Datadog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF4B8EF-18C6-3D43-9981-7210118A2EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D66798-D540-7A4D-A4AE-56B530C6AD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2123,6 +2123,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2134,7 +2135,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2153,6 +2154,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2280,9 +2282,11 @@
     <v>Powered by Refinitiv</v>
     <v>120.75</v>
     <v>61.34</v>
-    <v>0.92589999999999995</v>
-    <v>3.43</v>
-    <v>3.4992999999999996E-2</v>
+    <v>0.92859999999999998</v>
+    <v>3.81</v>
+    <v>3.4173000000000002E-2</v>
+    <v>-3.56</v>
+    <v>-3.0876000000000001E-2</v>
     <v>USD</v>
     <v>Datadog, Inc. is the observability and security platform for cloud applications. The Company's software as a service (SaaS) platform integrates and automates infrastructure monitoring, application performance monitoring, log management, real-user monitoring, and various other capabilities to provide unified, real-time observability and security for its customers entire technology stack. Its platform consists of products that can be used individually or as a unified solution and includes a marketplace where customers can access products built by its partners on top of the Datadog platform. The Company's products include Infrastructure Monitoring, Application Performance Monitoring (APM), Log Management, Digital Experience Monitoring, Continuous Profiler, Database Monitoring, Network Monitoring, Incident Management, Observability Pipelines, Cloud Cost Management, Universal Service Monitoring, Cloud Security Management, Application Security Management, CI Visibility and others.</v>
     <v>4800</v>
@@ -2290,23 +2294,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>620 8th Avenue, 45th Floor, NEW YORK, NY, 10018 US</v>
-    <v>102.4911</v>
+    <v>118.02</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45117.999957383596</v>
+    <v>45132.976394501566</v>
     <v>0</v>
-    <v>96.590100000000007</v>
-    <v>32654228895</v>
+    <v>114.32</v>
+    <v>37112199030</v>
     <v>DATADOG, INC.</v>
     <v>DATADOG, INC.</v>
-    <v>97.65</v>
-    <v>98.02</v>
-    <v>101.45</v>
+    <v>115.79</v>
+    <v>111.49</v>
+    <v>115.3</v>
+    <v>111.74</v>
     <v>321875100</v>
     <v>DDOG</v>
     <v>DATADOG, INC. (XNAS:DDOG)</v>
-    <v>588</v>
-    <v>3924150</v>
+    <v>6382394</v>
+    <v>3821896</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2338,6 +2343,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2357,6 +2364,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2373,7 +2381,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2384,13 +2392,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2454,13 +2465,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2504,6 +2521,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2511,6 +2531,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2872,10 +2895,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I96" sqref="I96"/>
+      <selection pane="bottomRight" activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3481,15 +3504,15 @@
       </c>
       <c r="N16" s="40">
         <f>O101/G3</f>
-        <v>19.493898212047043</v>
+        <v>22.155214034982986</v>
       </c>
       <c r="O16" s="40">
         <f>O101/G28</f>
-        <v>-651.00137350478474</v>
+        <v>-739.87637619617226</v>
       </c>
       <c r="P16" s="41">
         <f>O101/G107</f>
-        <v>92.369352890093296</v>
+        <v>104.9796588292534</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3593,15 +3616,15 @@
       </c>
       <c r="N19" s="40">
         <f>O101/H3</f>
-        <v>15.616560925394548</v>
+        <v>17.748540903873746</v>
       </c>
       <c r="O19" s="40">
         <f>O101/H28</f>
-        <v>79.50871413440467</v>
+        <v>90.363279839298755</v>
       </c>
       <c r="P19" s="41">
         <f>O101/H106</f>
-        <v>117.20828749102657</v>
+        <v>133.20961604450827</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3727,7 +3750,7 @@
       </c>
       <c r="P22" s="43">
         <f>G107/O101</f>
-        <v>1.0826101609587557E-2</v>
+        <v>9.5256548854523639E-3</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5546,7 +5569,7 @@
       </c>
       <c r="O94" s="55">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5576,7 +5599,7 @@
       </c>
       <c r="O95" s="56" cm="1">
         <f t="array" ref="O95">_FV(A1,"Beta")</f>
-        <v>0.92589999999999995</v>
+        <v>0.92859999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5635,7 +5658,7 @@
       </c>
       <c r="O97" s="54">
         <f>(O94)+((O95)*(O96-O94))</f>
-        <v>8.0775168000000008E-2</v>
+        <v>8.0795568000000012E-2</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5722,7 +5745,7 @@
       </c>
       <c r="O100" s="54">
         <f>O99/O103</f>
-        <v>2.5006785331483497E-2</v>
+        <v>2.2069227370792806E-2</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5752,7 +5775,7 @@
       </c>
       <c r="O101" s="45" cm="1">
         <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
-        <v>32654228895</v>
+        <v>37112199030</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5782,7 +5805,7 @@
       </c>
       <c r="O102" s="54">
         <f>O101/O103</f>
-        <v>0.97499321466851652</v>
+        <v>0.97793077262920725</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5812,7 +5835,7 @@
       </c>
       <c r="O103" s="57">
         <f>O99+O101</f>
-        <v>33491749895</v>
+        <v>37949720030</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5898,7 +5921,7 @@
       </c>
       <c r="O105" s="59">
         <f>(O100*O92)+(O102*O97)</f>
-        <v>7.9273194082852549E-2</v>
+        <v>7.946958140061175E-2</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5980,7 +6003,7 @@
       <c r="K107" s="29"/>
       <c r="L107" s="38">
         <f>L106*(1+O107)/(O108-O107)</f>
-        <v>17941637975.34174</v>
+        <v>17876950308.067974</v>
       </c>
       <c r="M107" s="30" t="s">
         <v>144</v>
@@ -6011,7 +6034,7 @@
       </c>
       <c r="L108" s="38">
         <f>L107+L106</f>
-        <v>18891637975.34174</v>
+        <v>18826950308.067974</v>
       </c>
       <c r="M108" s="30" t="s">
         <v>141</v>
@@ -6021,7 +6044,7 @@
       </c>
       <c r="O108" s="61">
         <f>O105</f>
-        <v>7.9273194082852549E-2</v>
+        <v>7.946958140061175E-2</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -6036,7 +6059,7 @@
       </c>
       <c r="I110" s="45">
         <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>14542789136.109276</v>
+        <v>14486070043.848469</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -6063,7 +6086,7 @@
       </c>
       <c r="I113" s="45">
         <f>I110+I111-I112</f>
-        <v>15589594136.109276</v>
+        <v>15532875043.848469</v>
       </c>
     </row>
     <row r="114" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -6081,7 +6104,7 @@
       </c>
       <c r="I115" s="47">
         <f>I113/I114</f>
-        <v>48.43367547259566</v>
+        <v>48.257460871774391</v>
       </c>
     </row>
     <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -6090,7 +6113,7 @@
       </c>
       <c r="I116" s="48" cm="1">
         <f t="array" ref="I116">_FV(A1,"Price")</f>
-        <v>101.45</v>
+        <v>115.3</v>
       </c>
     </row>
     <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -6099,7 +6122,7 @@
       </c>
       <c r="I117" s="49">
         <f>I115/I116-1</f>
-        <v>-0.52258575187190082</v>
+        <v>-0.58146174439050835</v>
       </c>
     </row>
     <row r="118" spans="8:9" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Datadog.xlsx
+++ b/Technology/Software/Datadog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D66798-D540-7A4D-A4AE-56B530C6AD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDDF48C-04EC-554F-9DE8-C6784A854BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -555,9 +555,6 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
@@ -573,7 +570,13 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>4Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -701,6 +704,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -875,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -928,11 +938,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -941,8 +946,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -958,58 +961,124 @@
     <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1063,18 +1132,9 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>Datadog</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.44469634365011307"/>
-          <c:y val="2.9838372190549294E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1108,15 +1168,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.9643564356435645E-2"/>
-          <c:y val="0.16366157973886622"/>
-          <c:w val="0.87811221122112193"/>
-          <c:h val="0.67510023538237163"/>
+          <c:x val="9.274418604651162E-2"/>
+          <c:y val="0.13781806575109271"/>
+          <c:w val="0.83549501661129566"/>
+          <c:h val="0.63348966828557285"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1165,12 +1225,54 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$G$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$L$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>100761000</c:v>
                 </c:pt>
@@ -1188,13 +1290,28 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1675100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2055000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2548000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3220000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4145000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5071000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6918-E447-877A-1F4D52930FA1}"/>
+              <c16:uniqueId val="{00000000-A5FB-5B4D-93F3-40511A9D7827}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1203,11 +1320,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1245,36 +1362,93 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$G$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$L$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>591000</c:v>
+                  <c:v>-2570000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4214000</c:v>
+                  <c:v>-10762000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3606000</c:v>
+                  <c:v>-16710000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23662000</c:v>
+                  <c:v>-24547000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25568000</c:v>
+                  <c:v>-20745000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9725000</c:v>
+                  <c:v>-50160000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>464000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>559000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>741100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1152000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1463000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6918-E447-877A-1F4D52930FA1}"/>
+              <c16:uniqueId val="{00000001-A5FB-5B4D-93F3-40511A9D7827}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1325,12 +1499,54 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$G$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$L$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>6029000</c:v>
                 </c:pt>
@@ -1348,13 +1564,28 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>353518000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>309600000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>358300000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>539000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>707000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>845000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6918-E447-877A-1F4D52930FA1}"/>
+              <c16:uniqueId val="{00000002-A5FB-5B4D-93F3-40511A9D7827}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1366,13 +1597,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1411681120"/>
-        <c:axId val="1411682848"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1509379600"/>
+        <c:axId val="1508936512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1411681120"/>
+        <c:axId val="1509379600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1631,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1412,7 +1643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1411682848"/>
+        <c:crossAx val="1508936512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1420,7 +1651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1411682848"/>
+        <c:axId val="1508936512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1469,7 +1700,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1411681120"/>
+        <c:crossAx val="1509379600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1487,10 +1718,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36456474623840335"/>
-          <c:y val="0.92448913629782692"/>
-          <c:w val="0.30255367584002496"/>
-          <c:h val="4.6206831797519256E-2"/>
+          <c:x val="0.34498579538022861"/>
+          <c:y val="0.89126927664300104"/>
+          <c:w val="0.31680583744618879"/>
+          <c:h val="6.050971329063215E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1597,7 +1828,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1835,7 +2066,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2070,22 +2300,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>49213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9C7AC9-338A-536E-F201-A0AC4749FD89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A99CF4-4CEC-0D8F-9696-9C40766F273C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,38 +2343,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2280,13 +2510,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>120.75</v>
+    <v>118.02</v>
     <v>61.34</v>
-    <v>0.92859999999999998</v>
-    <v>3.81</v>
-    <v>3.4173000000000002E-2</v>
-    <v>-3.56</v>
-    <v>-3.0876000000000001E-2</v>
+    <v>0.99299999999999999</v>
+    <v>-0.54</v>
+    <v>-6.1159999999999999E-3</v>
+    <v>-0.16</v>
+    <v>-1.823E-3</v>
     <v>USD</v>
     <v>Datadog, Inc. is the observability and security platform for cloud applications. The Company's software as a service (SaaS) platform integrates and automates infrastructure monitoring, application performance monitoring, log management, real-user monitoring, and various other capabilities to provide unified, real-time observability and security for its customers entire technology stack. Its platform consists of products that can be used individually or as a unified solution and includes a marketplace where customers can access products built by its partners on top of the Datadog platform. The Company's products include Infrastructure Monitoring, Application Performance Monitoring (APM), Log Management, Digital Experience Monitoring, Continuous Profiler, Database Monitoring, Network Monitoring, Incident Management, Observability Pipelines, Cloud Cost Management, Universal Service Monitoring, Cloud Security Management, Application Security Management, CI Visibility and others.</v>
     <v>4800</v>
@@ -2294,24 +2524,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>620 8th Avenue, 45th Floor, NEW YORK, NY, 10018 US</v>
-    <v>118.02</v>
+    <v>89.52</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45132.976394501566</v>
+    <v>45218.99548101797</v>
     <v>0</v>
-    <v>114.32</v>
-    <v>37112199030</v>
+    <v>87.12</v>
+    <v>28518706125</v>
     <v>DATADOG, INC.</v>
     <v>DATADOG, INC.</v>
-    <v>115.79</v>
-    <v>111.49</v>
-    <v>115.3</v>
-    <v>111.74</v>
-    <v>321875100</v>
+    <v>88.57</v>
+    <v>88.29</v>
+    <v>87.75</v>
+    <v>87.59</v>
+    <v>324999500</v>
     <v>DDOG</v>
     <v>DATADOG, INC. (XNAS:DDOG)</v>
-    <v>6382394</v>
-    <v>3821896</v>
+    <v>3383536</v>
+    <v>3389956</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2473,9 +2703,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2892,13 +3122,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL118"/>
+  <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I100" sqref="I100"/>
+      <selection pane="bottomRight" activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3007,19 +3237,19 @@
         <v>1675100000</v>
       </c>
       <c r="H3" s="25">
-        <v>2091000000</v>
+        <v>2055000000</v>
       </c>
       <c r="I3" s="25">
-        <v>2650000000</v>
+        <v>2548000000</v>
       </c>
       <c r="J3" s="25">
-        <v>3528000000</v>
+        <v>3220000000</v>
       </c>
       <c r="K3" s="25">
-        <v>4626000000</v>
+        <v>4145000000</v>
       </c>
       <c r="L3" s="25">
-        <v>5721000000</v>
+        <v>5071000000</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>107</v>
@@ -3039,45 +3269,45 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="44">
         <f>(C3/B3)-1</f>
         <v>0.96581018449598566</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="44">
         <f>(D3/C3)-1</f>
         <v>0.83150996834564328</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="44">
         <f>(E3/D3)-1</f>
         <v>0.66344892221180873</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="44">
         <f t="shared" ref="F4:L4" si="0">(F3/E3)-1</f>
         <v>0.70479198496684159</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="44">
         <f t="shared" si="0"/>
         <v>0.62823294296956411</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.2482836845561458</v>
+        <v>0.22679243030266849</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.26733620277379244</v>
+        <v>0.23990267639902685</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.33132075471698119</v>
+        <v>0.26373626373626369</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.31122448979591844</v>
+        <v>0.28726708074534169</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.23670557717250329</v>
+        <v>0.22340168878166455</v>
       </c>
       <c r="M4" s="17">
         <f>(G4+F4+E4)/3</f>
@@ -3156,16 +3386,20 @@
       <c r="G6" s="10">
         <v>1328357000</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="H6" s="28">
+        <f>H3*H7</f>
+        <v>1644205500</v>
+      </c>
+      <c r="M6" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="70" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3191,21 +3425,24 @@
       <c r="G7" s="2">
         <v>0.79300000000000004</v>
       </c>
+      <c r="H7" s="2">
+        <v>0.80010000000000003</v>
+      </c>
       <c r="M7" s="17">
-        <f>G7</f>
-        <v>0.79300000000000004</v>
+        <f>H7</f>
+        <v>0.80010000000000003</v>
       </c>
       <c r="N7" s="21">
-        <f>G21</f>
-        <v>5.7999999999999996E-3</v>
+        <f>H21</f>
+        <v>0.21328467153284672</v>
       </c>
       <c r="O7" s="21">
-        <f>G30</f>
-        <v>-2.9899999999999999E-2</v>
+        <f>H30</f>
+        <v>0.22579075425790754</v>
       </c>
       <c r="P7" s="21">
-        <f>G107/G3</f>
-        <v>0.21104292281057846</v>
+        <f>H107/H3</f>
+        <v>0.15065693430656935</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3499,20 +3736,20 @@
         <v>1733795000</v>
       </c>
       <c r="M16" s="26">
-        <f>(G35+F35+E35+D35+C35)/5</f>
-        <v>0.57794247798510179</v>
-      </c>
-      <c r="N16" s="40">
-        <f>O101/G3</f>
-        <v>22.155214034982986</v>
-      </c>
-      <c r="O16" s="40">
-        <f>O101/G28</f>
-        <v>-739.87637619617226</v>
-      </c>
-      <c r="P16" s="41">
-        <f>O101/G107</f>
-        <v>104.9796588292534</v>
+        <f>((G34/C34)-1)/5</f>
+        <v>4.7439445538868918E-2</v>
+      </c>
+      <c r="N16" s="35">
+        <f>O102/G3</f>
+        <v>17.025076786460509</v>
+      </c>
+      <c r="O16" s="35">
+        <f>O102/G28</f>
+        <v>-568.55474730861249</v>
+      </c>
+      <c r="P16" s="36">
+        <f>O102/G107</f>
+        <v>80.671157126369806</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3563,14 +3800,14 @@
       <c r="M18" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="N18" s="39" t="s">
+      <c r="N18" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="O18" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="O18" s="39" t="s">
+      <c r="P18" s="20" t="s">
         <v>163</v>
-      </c>
-      <c r="P18" s="20" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3595,36 +3832,36 @@
       <c r="G19" s="10">
         <v>9725000</v>
       </c>
-      <c r="H19" s="31">
-        <v>394200000</v>
-      </c>
-      <c r="I19" s="31">
-        <v>525000000</v>
-      </c>
-      <c r="J19" s="31">
-        <v>743800000</v>
-      </c>
-      <c r="K19" s="31">
+      <c r="H19" s="28">
+        <v>438300000</v>
+      </c>
+      <c r="I19" s="28">
+        <v>529300000</v>
+      </c>
+      <c r="J19" s="28">
+        <v>748000000</v>
+      </c>
+      <c r="K19" s="28">
         <v>839000000</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="28">
         <v>1112000000</v>
       </c>
       <c r="M19" s="27">
         <f>G40-G56-G61</f>
         <v>1046805000</v>
       </c>
-      <c r="N19" s="40">
-        <f>O101/H3</f>
-        <v>17.748540903873746</v>
-      </c>
-      <c r="O19" s="40">
-        <f>O101/H28</f>
-        <v>90.363279839298755</v>
-      </c>
-      <c r="P19" s="41">
-        <f>O101/H106</f>
-        <v>133.20961604450827</v>
+      <c r="N19" s="35">
+        <f>O102/H3</f>
+        <v>13.87771587591241</v>
+      </c>
+      <c r="O19" s="35">
+        <f>O102/H28</f>
+        <v>61.462728717672412</v>
+      </c>
+      <c r="P19" s="36">
+        <f>O102/H107</f>
+        <v>92.114683866279066</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3654,19 +3891,19 @@
       </c>
       <c r="H20" s="16">
         <f t="shared" ref="H20" si="4">(H19/G19)-1</f>
-        <v>39.534704370179952</v>
+        <v>44.069408740359897</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" ref="I20" si="5">(I19/H19)-1</f>
-        <v>0.33181126331811273</v>
+        <v>0.20762035135751766</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" ref="J20" si="6">(J19/I19)-1</f>
-        <v>0.41676190476190467</v>
+        <v>0.41318722841488764</v>
       </c>
       <c r="K20" s="16">
         <f t="shared" ref="K20" si="7">(K19/J19)-1</f>
-        <v>0.12799139553643446</v>
+        <v>0.12165775401069512</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" ref="L20" si="8">(L19/K19)-1</f>
@@ -3695,28 +3932,31 @@
       <c r="G21" s="2">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="29">
         <f>H19/H3</f>
-        <v>0.18852223816355809</v>
-      </c>
-      <c r="I21" s="32">
+        <v>0.21328467153284672</v>
+      </c>
+      <c r="I21" s="29">
         <f t="shared" ref="I21:L21" si="9">I19/I3</f>
-        <v>0.19811320754716982</v>
-      </c>
-      <c r="J21" s="32">
+        <v>0.20773155416012559</v>
+      </c>
+      <c r="J21" s="29">
         <f t="shared" si="9"/>
-        <v>0.21082766439909298</v>
-      </c>
-      <c r="K21" s="32">
+        <v>0.23229813664596274</v>
+      </c>
+      <c r="K21" s="29">
         <f t="shared" si="9"/>
-        <v>0.18136619109381755</v>
-      </c>
-      <c r="L21" s="32">
+        <v>0.20241254523522317</v>
+      </c>
+      <c r="L21" s="29">
         <f t="shared" si="9"/>
-        <v>0.19437161335430869</v>
+        <v>0.21928613685663578</v>
+      </c>
+      <c r="N21" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P21" s="20" t="s">
         <v>166</v>
@@ -3744,13 +3984,17 @@
       <c r="G22" s="10">
         <v>-58695000</v>
       </c>
-      <c r="O22" s="42">
-        <f>(-1*G98)/O101</f>
+      <c r="N22" s="17">
+        <f>SUM(I29:L29)/4</f>
+        <v>0.33872825923952682</v>
+      </c>
+      <c r="O22" s="37">
+        <f>(-1*G98)/O102</f>
         <v>0</v>
       </c>
-      <c r="P22" s="43">
-        <f>G107/O101</f>
-        <v>9.5256548854523639E-3</v>
+      <c r="P22" s="38">
+        <f>H107/O102</f>
+        <v>1.0856032480681134E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3890,20 +4134,20 @@
       <c r="G28" s="11">
         <v>-50160000</v>
       </c>
-      <c r="H28" s="33">
-        <v>410700000</v>
-      </c>
-      <c r="I28" s="33">
-        <v>532700000</v>
-      </c>
-      <c r="J28" s="33">
-        <v>711400000</v>
-      </c>
-      <c r="K28" s="33">
-        <v>881200000</v>
-      </c>
-      <c r="L28" s="33">
-        <v>1071000000</v>
+      <c r="H28" s="30">
+        <v>464000000</v>
+      </c>
+      <c r="I28" s="30">
+        <v>559000000</v>
+      </c>
+      <c r="J28" s="30">
+        <v>741100000</v>
+      </c>
+      <c r="K28" s="30">
+        <v>1152000000</v>
+      </c>
+      <c r="L28" s="30">
+        <v>1463000000</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3933,23 +4177,23 @@
       </c>
       <c r="H29" s="16">
         <f t="shared" ref="H29" si="11">(H28/G28)-1</f>
-        <v>-9.187799043062201</v>
+        <v>-10.250398724082935</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" ref="I29" si="12">(I28/H28)-1</f>
-        <v>0.29705381056732416</v>
+        <v>0.20474137931034475</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" ref="J29" si="13">(J28/I28)-1</f>
-        <v>0.33546085977097806</v>
+        <v>0.32576028622540254</v>
       </c>
       <c r="K29" s="16">
         <f t="shared" ref="K29" si="14">(K28/J28)-1</f>
-        <v>0.23868428450941814</v>
+        <v>0.55444609364458231</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" ref="L29" si="15">(L28/K28)-1</f>
-        <v>0.21538810712664547</v>
+        <v>0.26996527777777768</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3974,25 +4218,25 @@
       <c r="G30" s="2">
         <v>-2.9899999999999999E-2</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="31">
         <f>H28/H3</f>
-        <v>0.19641319942611191</v>
-      </c>
-      <c r="I30" s="34">
+        <v>0.22579075425790754</v>
+      </c>
+      <c r="I30" s="31">
         <f t="shared" ref="I30:L30" si="16">I28/I3</f>
-        <v>0.2010188679245283</v>
-      </c>
-      <c r="J30" s="34">
+        <v>0.21938775510204081</v>
+      </c>
+      <c r="J30" s="31">
         <f t="shared" si="16"/>
-        <v>0.20164399092970522</v>
-      </c>
-      <c r="K30" s="34">
+        <v>0.2301552795031056</v>
+      </c>
+      <c r="K30" s="31">
         <f t="shared" si="16"/>
-        <v>0.19048854301772589</v>
-      </c>
-      <c r="L30" s="34">
+        <v>0.27792521109770807</v>
+      </c>
+      <c r="L30" s="31">
         <f t="shared" si="16"/>
-        <v>0.18720503408495018</v>
+        <v>0.28850325379609543</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -4017,20 +4261,20 @@
       <c r="G31" s="12">
         <v>-0.16</v>
       </c>
-      <c r="H31" s="35">
-        <v>1.28</v>
-      </c>
-      <c r="I31" s="35">
-        <v>1.66</v>
-      </c>
-      <c r="J31" s="35">
-        <v>2.21</v>
-      </c>
-      <c r="K31" s="35">
-        <v>2.74</v>
-      </c>
-      <c r="L31" s="35">
-        <v>3.33</v>
+      <c r="H31" s="32">
+        <v>1.43</v>
+      </c>
+      <c r="I31" s="32">
+        <v>1.72</v>
+      </c>
+      <c r="J31" s="32">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="K31" s="32">
+        <v>3.54</v>
+      </c>
+      <c r="L31" s="32">
+        <v>4.5</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -4056,7 +4300,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -4078,8 +4322,12 @@
       <c r="G33" s="1">
         <v>310247000</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H33" s="1" cm="1">
+        <f t="array" ref="H33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>324999500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -4101,8 +4349,12 @@
       <c r="G34" s="1">
         <v>310247000</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="1" cm="1">
+        <f t="array" ref="H34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>324999500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
@@ -4124,11 +4376,15 @@
         <v>3.2951556517396369E-2</v>
       </c>
       <c r="G35" s="23">
-        <f t="shared" ref="G35" si="19">(G34-F34)/F34</f>
+        <f t="shared" ref="G35:H35" si="19">(G34-F34)/F34</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H35" s="23">
+        <f t="shared" si="19"/>
+        <v>4.7550822409241668E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -4151,7 +4407,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -4174,7 +4430,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -4197,7 +4453,7 @@
         <v>338985000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -4220,7 +4476,7 @@
         <v>1545341000</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -4243,7 +4499,7 @@
         <v>1884326000</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -4266,7 +4522,7 @@
         <v>399551000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -4289,7 +4545,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -4312,7 +4568,7 @@
         <v>60357000</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -4335,7 +4591,7 @@
         <v>2344234000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -4358,7 +4614,7 @@
         <v>212975000</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -4381,7 +4637,7 @@
         <v>348277000</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -4404,7 +4660,7 @@
         <v>16365000</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -5215,7 +5471,7 @@
         <v>-135701000</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -5237,12 +5493,8 @@
       <c r="G83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N83" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="O83" s="67"/>
-    </row>
-    <row r="84" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -5264,12 +5516,18 @@
       <c r="G84" s="1">
         <v>-1286000</v>
       </c>
-      <c r="N84" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="O84" s="68"/>
-    </row>
-    <row r="85" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="H84" s="46"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="46"/>
+      <c r="K84" s="46"/>
+      <c r="L84" s="46"/>
+      <c r="M84" s="46"/>
+      <c r="N84" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="O84" s="76"/>
+    </row>
+    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -5291,13 +5549,16 @@
       <c r="G85" s="1">
         <v>117546000</v>
       </c>
-      <c r="N85" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="O85" s="52">
-        <f>G17</f>
-        <v>13166000</v>
-      </c>
+      <c r="H85" s="46"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="46"/>
+      <c r="K85" s="46"/>
+      <c r="L85" s="46"/>
+      <c r="M85" s="46"/>
+      <c r="N85" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="O85" s="77"/>
     </row>
     <row r="86" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -5321,12 +5582,18 @@
       <c r="G86" s="1">
         <v>64391000</v>
       </c>
-      <c r="N86" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="O86" s="52">
-        <f>G56</f>
-        <v>22092000</v>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="46"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="46"/>
+      <c r="M86" s="46"/>
+      <c r="N86" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="O86" s="47">
+        <f>G17</f>
+        <v>13166000</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5351,12 +5618,18 @@
       <c r="G87" s="10">
         <v>418407000</v>
       </c>
-      <c r="N87" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="O87" s="52">
-        <f>G61</f>
-        <v>815429000</v>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="46"/>
+      <c r="K87" s="46"/>
+      <c r="L87" s="46"/>
+      <c r="M87" s="46"/>
+      <c r="N87" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="O87" s="47">
+        <f>G56</f>
+        <v>22092000</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5381,12 +5654,18 @@
       <c r="G88" s="1">
         <v>-35261000</v>
       </c>
-      <c r="N88" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="O88" s="54">
-        <f>O85/(O86+O87)</f>
-        <v>1.5720202836704989E-2</v>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
+      <c r="M88" s="46"/>
+      <c r="N88" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="O88" s="47">
+        <f>G61</f>
+        <v>815429000</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5417,12 +5696,18 @@
         <f t="shared" si="21"/>
         <v>2.1050086561996299E-2</v>
       </c>
-      <c r="N89" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="O89" s="52">
-        <f>G27</f>
-        <v>12090000</v>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="46"/>
+      <c r="K89" s="46"/>
+      <c r="L89" s="46"/>
+      <c r="M89" s="46"/>
+      <c r="N89" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="O89" s="48">
+        <f>O86/(O87+O88)</f>
+        <v>1.5720202836704989E-2</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5447,12 +5732,18 @@
       <c r="G90" s="1">
         <v>-45878000</v>
       </c>
-      <c r="N90" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="O90" s="52">
-        <f>G25</f>
-        <v>-38070000</v>
+      <c r="H90" s="46"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="46"/>
+      <c r="K90" s="46"/>
+      <c r="L90" s="46"/>
+      <c r="M90" s="46"/>
+      <c r="N90" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="O90" s="47">
+        <f>G27</f>
+        <v>12090000</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5477,12 +5768,18 @@
       <c r="G91" s="1">
         <v>-1413717000</v>
       </c>
-      <c r="N91" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="O91" s="54">
-        <f>O89/O90</f>
-        <v>-0.31757289204097716</v>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="46"/>
+      <c r="M91" s="46"/>
+      <c r="N91" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="O91" s="47">
+        <f>G25</f>
+        <v>-38070000</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5507,15 +5804,21 @@
       <c r="G92" s="1">
         <v>1139814000</v>
       </c>
-      <c r="N92" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="O92" s="54">
-        <f>O88*(1-O91)</f>
-        <v>2.0712513115028166E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="46"/>
+      <c r="N92" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="O92" s="48">
+        <f>O90/O91</f>
+        <v>-0.31757289204097716</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -5537,12 +5840,21 @@
       <c r="G93" s="1">
         <v>-29628000</v>
       </c>
-      <c r="N93" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="O93" s="68"/>
-    </row>
-    <row r="94" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="H93" s="46"/>
+      <c r="I93" s="46"/>
+      <c r="J93" s="46"/>
+      <c r="K93" s="46"/>
+      <c r="L93" s="46"/>
+      <c r="M93" s="46"/>
+      <c r="N93" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="O93" s="48">
+        <f>O89*(1-O92)</f>
+        <v>2.0712513115028166E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -5564,13 +5876,16 @@
       <c r="G94" s="10">
         <v>-384670000</v>
       </c>
-      <c r="N94" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="O94" s="55">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="H94" s="46"/>
+      <c r="I94" s="46"/>
+      <c r="J94" s="46"/>
+      <c r="K94" s="46"/>
+      <c r="L94" s="46"/>
+      <c r="M94" s="46"/>
+      <c r="N94" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="O94" s="77"/>
     </row>
     <row r="95" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -5594,12 +5909,18 @@
       <c r="G95" s="1">
         <v>-3000</v>
       </c>
-      <c r="N95" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="O95" s="56" cm="1">
-        <f t="array" ref="O95">_FV(A1,"Beta")</f>
-        <v>0.92859999999999998</v>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="46"/>
+      <c r="K95" s="46"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="46"/>
+      <c r="N95" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="O95" s="71">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5624,11 +5945,18 @@
       <c r="G96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N96" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="O96" s="55">
-        <v>8.4000000000000005E-2</v>
+      <c r="H96" s="46"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="46"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="46"/>
+      <c r="M96" s="46"/>
+      <c r="N96" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="O96" s="50" cm="1">
+        <f t="array" ref="O96">_FV(A1,"Beta")</f>
+        <v>0.99299999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5653,15 +5981,20 @@
       <c r="G97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N97" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="O97" s="54">
-        <f>(O94)+((O95)*(O96-O94))</f>
-        <v>8.0795568000000012E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="H97" s="46"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="46"/>
+      <c r="K97" s="46"/>
+      <c r="L97" s="46"/>
+      <c r="M97" s="46"/>
+      <c r="N97" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="O97" s="49">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -5683,12 +6016,21 @@
       <c r="G98" s="1">
         <v>0</v>
       </c>
-      <c r="N98" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="O98" s="68"/>
-    </row>
-    <row r="99" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="H98" s="46"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="46"/>
+      <c r="K98" s="46"/>
+      <c r="L98" s="46"/>
+      <c r="M98" s="46"/>
+      <c r="N98" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="O98" s="48">
+        <f>(O95)+((O96)*(O97-O95))</f>
+        <v>8.3755140000000006E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -5710,13 +6052,16 @@
       <c r="G99" s="1">
         <v>36026000</v>
       </c>
-      <c r="N99" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="O99" s="52">
-        <f>O86+O87</f>
-        <v>837521000</v>
-      </c>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="46"/>
+      <c r="K99" s="46"/>
+      <c r="L99" s="46"/>
+      <c r="M99" s="46"/>
+      <c r="N99" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="O99" s="77"/>
     </row>
     <row r="100" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -5740,12 +6085,18 @@
       <c r="G100" s="10">
         <v>36023000</v>
       </c>
-      <c r="N100" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="O100" s="54">
-        <f>O99/O103</f>
-        <v>2.2069227370792806E-2</v>
+      <c r="H100" s="46"/>
+      <c r="I100" s="46"/>
+      <c r="J100" s="46"/>
+      <c r="K100" s="46"/>
+      <c r="L100" s="46"/>
+      <c r="M100" s="46"/>
+      <c r="N100" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="O100" s="47">
+        <f>O87+O88</f>
+        <v>837521000</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5770,12 +6121,18 @@
       <c r="G101" s="1">
         <v>-1935000</v>
       </c>
-      <c r="N101" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="O101" s="45" cm="1">
-        <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
-        <v>37112199030</v>
+      <c r="H101" s="46"/>
+      <c r="I101" s="46"/>
+      <c r="J101" s="46"/>
+      <c r="K101" s="46"/>
+      <c r="L101" s="46"/>
+      <c r="M101" s="46"/>
+      <c r="N101" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="O101" s="48">
+        <f>O100/O104</f>
+        <v>2.852958578204896E-2</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5800,12 +6157,18 @@
       <c r="G102" s="10">
         <v>67825000</v>
       </c>
-      <c r="N102" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="O102" s="54">
-        <f>O101/O103</f>
-        <v>0.97793077262920725</v>
+      <c r="H102" s="46"/>
+      <c r="I102" s="46"/>
+      <c r="J102" s="46"/>
+      <c r="K102" s="46"/>
+      <c r="L102" s="46"/>
+      <c r="M102" s="46"/>
+      <c r="N102" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="O102" s="51" cm="1">
+        <f t="array" ref="O102">_FV(A1,"Market cap",TRUE)</f>
+        <v>28518706125</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5830,15 +6193,21 @@
       <c r="G103" s="1">
         <v>274463000</v>
       </c>
-      <c r="N103" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="O103" s="57">
-        <f>O99+O101</f>
-        <v>37949720030</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="46"/>
+      <c r="K103" s="46"/>
+      <c r="L103" s="46"/>
+      <c r="M103" s="46"/>
+      <c r="N103" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="O103" s="48">
+        <f>O102/O104</f>
+        <v>0.97147041421795099</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -5860,12 +6229,23 @@
       <c r="G104" s="11">
         <v>342288000</v>
       </c>
-      <c r="N104" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="O104" s="68"/>
-    </row>
-    <row r="105" spans="1:15" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H104" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="I104" s="79"/>
+      <c r="J104" s="79"/>
+      <c r="K104" s="79"/>
+      <c r="L104" s="79"/>
+      <c r="M104" s="46"/>
+      <c r="N104" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="O104" s="52">
+        <f>O100+O102</f>
+        <v>29356227125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>157</v>
       </c>
@@ -5893,90 +6273,93 @@
         <f>(G22*(1-0.2))+G77+G88+G81</f>
         <v>-41195000</v>
       </c>
-      <c r="H105" s="28">
-        <f>G105*(1+$O$106)</f>
-        <v>-52687339.771577395</v>
-      </c>
-      <c r="I105" s="28">
-        <f t="shared" ref="I105:L105" si="23">H105*(1+$O$106)</f>
-        <v>-67385745.168239862</v>
-      </c>
-      <c r="J105" s="28">
-        <f t="shared" si="23"/>
-        <v>-86184625.596309826</v>
-      </c>
-      <c r="K105" s="28">
-        <f t="shared" si="23"/>
-        <v>-110227907.55865911</v>
-      </c>
-      <c r="L105" s="28">
-        <f t="shared" si="23"/>
-        <v>-140978643.47258398</v>
-      </c>
-      <c r="M105" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="N105" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="O105" s="59">
-        <f>(O100*O92)+(O102*O97)</f>
-        <v>7.946958140061175E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="H105" s="72">
+        <f>H107/H3</f>
+        <v>0.15065693430656935</v>
+      </c>
+      <c r="I105" s="72">
+        <f>I107/I3</f>
+        <v>0.14062009419152277</v>
+      </c>
+      <c r="J105" s="72">
+        <f>J107/J3</f>
+        <v>0.16739130434782609</v>
+      </c>
+      <c r="K105" s="72">
+        <f>K107/K3</f>
+        <v>0.17056694813027745</v>
+      </c>
+      <c r="L105" s="72">
+        <f>L107/L3</f>
+        <v>0.16663380003943995</v>
+      </c>
+      <c r="M105" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="N105" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="O105" s="77"/>
+    </row>
+    <row r="106" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:L106" si="23">(C107/B107)-1</f>
         <v>-1.8308177143804942</v>
       </c>
       <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="23"/>
         <v>-1.1579157516470353</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="23"/>
         <v>104.19342604298356</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="23"/>
         <v>2.0107681953658303</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="23"/>
         <v>0.41113683538240453</v>
       </c>
-      <c r="H106" s="37">
-        <v>278600000</v>
-      </c>
-      <c r="I106" s="37">
-        <v>371000000</v>
-      </c>
-      <c r="J106" s="37">
-        <v>576000000</v>
-      </c>
-      <c r="K106" s="37">
-        <v>824000000</v>
-      </c>
-      <c r="L106" s="37">
-        <v>950000000</v>
-      </c>
-      <c r="M106" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="N106" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="O106" s="61">
-        <f>(SUM(H4:L4)/5)</f>
-        <v>0.27897414180306823</v>
+      <c r="H106" s="54">
+        <f t="shared" si="23"/>
+        <v>-0.12423129798199806</v>
+      </c>
+      <c r="I106" s="54">
+        <f t="shared" si="23"/>
+        <v>0.15729974160206717</v>
+      </c>
+      <c r="J106" s="54">
+        <f t="shared" si="23"/>
+        <v>0.50432598381244764</v>
+      </c>
+      <c r="K106" s="54">
+        <f t="shared" si="23"/>
+        <v>0.31168831168831179</v>
+      </c>
+      <c r="L106" s="54">
+        <f t="shared" si="23"/>
+        <v>0.19519094766619527</v>
+      </c>
+      <c r="M106" s="55">
+        <f>SUM(H106:L106)/5</f>
+        <v>0.20885473735740473</v>
+      </c>
+      <c r="N106" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="O106" s="56">
+        <f>(O101*O93)+(O103*O98)</f>
+        <v>8.1956559968359488E-2</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="36" t="s">
+      <c r="A107" s="33" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1">
@@ -5997,151 +6380,239 @@
       <c r="G107" s="1">
         <v>353518000</v>
       </c>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
-      <c r="L107" s="38">
-        <f>L106*(1+O107)/(O108-O107)</f>
-        <v>17876950308.067974</v>
-      </c>
-      <c r="M107" s="30" t="s">
+      <c r="H107" s="57">
+        <v>309600000</v>
+      </c>
+      <c r="I107" s="57">
+        <v>358300000</v>
+      </c>
+      <c r="J107" s="57">
+        <v>539000000</v>
+      </c>
+      <c r="K107" s="57">
+        <v>707000000</v>
+      </c>
+      <c r="L107" s="57">
+        <v>845000000</v>
+      </c>
+      <c r="M107" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="N107" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="O107" s="42">
+        <f>(SUM(H4:L4)/5)</f>
+        <v>0.24822002799299306</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="19" x14ac:dyDescent="0.2">
+      <c r="H108" s="74"/>
+      <c r="I108" s="74"/>
+      <c r="J108" s="74"/>
+      <c r="K108" s="74"/>
+      <c r="L108" s="59">
+        <f>L107*(1+O108)/(O109-O108)</f>
+        <v>15206764602.376789</v>
+      </c>
+      <c r="M108" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="N107" s="62" t="s">
+      <c r="N108" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="O107" s="63">
+      <c r="O108" s="43">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="H108" s="38">
-        <f t="shared" ref="H108:K108" si="24">H107+H106</f>
-        <v>278600000</v>
-      </c>
-      <c r="I108" s="38">
+    <row r="109" spans="1:15" ht="19" x14ac:dyDescent="0.2">
+      <c r="H109" s="59">
+        <f t="shared" ref="H109:K109" si="24">H108+H107</f>
+        <v>309600000</v>
+      </c>
+      <c r="I109" s="59">
         <f t="shared" si="24"/>
-        <v>371000000</v>
-      </c>
-      <c r="J108" s="38">
+        <v>358300000</v>
+      </c>
+      <c r="J109" s="59">
         <f t="shared" si="24"/>
-        <v>576000000</v>
-      </c>
-      <c r="K108" s="38">
+        <v>539000000</v>
+      </c>
+      <c r="K109" s="59">
         <f t="shared" si="24"/>
-        <v>824000000</v>
-      </c>
-      <c r="L108" s="38">
-        <f>L107+L106</f>
-        <v>18826950308.067974</v>
-      </c>
-      <c r="M108" s="30" t="s">
+        <v>707000000</v>
+      </c>
+      <c r="L109" s="59">
+        <f>L108+L107</f>
+        <v>16051764602.376789</v>
+      </c>
+      <c r="M109" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="N108" s="64" t="s">
+      <c r="N109" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="O108" s="61">
-        <f>O105</f>
-        <v>7.946958140061175E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="H109" s="65" t="s">
+      <c r="O109" s="42">
+        <f>O106</f>
+        <v>8.1956559968359488E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="19" x14ac:dyDescent="0.2">
+      <c r="H110" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="I109" s="65"/>
-    </row>
-    <row r="110" spans="1:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="H110" s="44" t="s">
+      <c r="I110" s="78"/>
+      <c r="J110" s="46"/>
+      <c r="K110" s="46"/>
+      <c r="L110" s="46"/>
+      <c r="M110" s="46"/>
+      <c r="N110" s="46"/>
+      <c r="O110" s="46"/>
+    </row>
+    <row r="111" spans="1:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="H111" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="I110" s="45">
-        <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>14486070043.848469</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="H111" s="44" t="s">
+      <c r="I111" s="51">
+        <f>NPV(O109,H109,I109,J109,K109,L109)</f>
+        <v>12359839160.855768</v>
+      </c>
+      <c r="J111" s="46"/>
+      <c r="K111" s="46"/>
+      <c r="L111" s="46"/>
+      <c r="M111" s="46"/>
+      <c r="N111" s="46"/>
+      <c r="O111" s="46"/>
+    </row>
+    <row r="112" spans="1:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="H112" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="I111" s="45">
+      <c r="I112" s="51">
         <f>G40</f>
         <v>1884326000</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="H112" s="44" t="s">
+      <c r="J112" s="46"/>
+      <c r="K112" s="46"/>
+      <c r="L112" s="46"/>
+      <c r="M112" s="46"/>
+      <c r="N112" s="46"/>
+      <c r="O112" s="46"/>
+    </row>
+    <row r="113" spans="8:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="H113" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="I112" s="45">
-        <f>O99</f>
+      <c r="I113" s="51">
+        <f>O100</f>
         <v>837521000</v>
       </c>
-    </row>
-    <row r="113" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H113" s="44" t="s">
+      <c r="J113" s="46"/>
+      <c r="K113" s="46"/>
+      <c r="L113" s="46"/>
+      <c r="M113" s="46"/>
+      <c r="N113" s="46"/>
+      <c r="O113" s="46"/>
+    </row>
+    <row r="114" spans="8:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="H114" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="I113" s="45">
-        <f>I110+I111-I112</f>
-        <v>15532875043.848469</v>
-      </c>
-    </row>
-    <row r="114" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H114" s="44" t="s">
+      <c r="I114" s="51">
+        <f>I111+I112-I113</f>
+        <v>13406644160.855768</v>
+      </c>
+      <c r="J114" s="46"/>
+      <c r="K114" s="46"/>
+      <c r="L114" s="46"/>
+      <c r="M114" s="46"/>
+      <c r="N114" s="46"/>
+      <c r="O114" s="46"/>
+    </row>
+    <row r="115" spans="8:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="H115" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="I114" s="44" cm="1">
-        <f t="array" ref="I114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>321875100</v>
-      </c>
-    </row>
-    <row r="115" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H115" s="46" t="s">
+      <c r="I115" s="63" cm="1">
+        <f t="array" ref="I115">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>324999500</v>
+      </c>
+      <c r="J115" s="46"/>
+      <c r="K115" s="46"/>
+      <c r="L115" s="46"/>
+      <c r="M115" s="46"/>
+      <c r="N115" s="46"/>
+      <c r="O115" s="46"/>
+    </row>
+    <row r="116" spans="8:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="H116" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="I115" s="47">
-        <f>I113/I114</f>
-        <v>48.257460871774391</v>
-      </c>
-    </row>
-    <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H116" s="44" t="s">
+      <c r="I116" s="65">
+        <f>I114/I115</f>
+        <v>41.251276266135079</v>
+      </c>
+      <c r="J116" s="46"/>
+      <c r="K116" s="46"/>
+      <c r="L116" s="46"/>
+      <c r="M116" s="46"/>
+      <c r="N116" s="46"/>
+      <c r="O116" s="46"/>
+    </row>
+    <row r="117" spans="8:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="H117" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="I116" s="48" cm="1">
-        <f t="array" ref="I116">_FV(A1,"Price")</f>
-        <v>115.3</v>
-      </c>
-    </row>
-    <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H117" s="46" t="s">
+      <c r="I117" s="66" cm="1">
+        <f t="array" ref="I117">_FV(A1,"Price")</f>
+        <v>87.75</v>
+      </c>
+      <c r="J117" s="46"/>
+      <c r="K117" s="46"/>
+      <c r="L117" s="46"/>
+      <c r="M117" s="46"/>
+      <c r="N117" s="46"/>
+      <c r="O117" s="46"/>
+    </row>
+    <row r="118" spans="8:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="H118" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="I117" s="49">
-        <f>I115/I116-1</f>
-        <v>-0.58146174439050835</v>
-      </c>
-    </row>
-    <row r="118" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H118" s="46" t="s">
+      <c r="I118" s="67">
+        <f>I116/I117-1</f>
+        <v>-0.52989998557111018</v>
+      </c>
+      <c r="J118" s="46"/>
+      <c r="K118" s="46"/>
+      <c r="L118" s="46"/>
+      <c r="M118" s="46"/>
+      <c r="N118" s="46"/>
+      <c r="O118" s="46"/>
+    </row>
+    <row r="119" spans="8:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="H119" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="I118" s="50" t="str">
-        <f>IF(I115&gt;I116,"BUY","SELL")</f>
+      <c r="I119" s="68" t="str">
+        <f>IF(I116&gt;I117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="J119" s="46"/>
+      <c r="K119" s="46"/>
+      <c r="L119" s="46"/>
+      <c r="M119" s="46"/>
+      <c r="N119" s="46"/>
+      <c r="O119" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="N83:O83"/>
+  <mergeCells count="7">
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H104:L104"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="N94:O94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/DDOG" display="ROIC.AI | DDOG" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6158,7 +6629,7 @@
     <hyperlink ref="G36" r:id="rId12" tooltip="https://www.sec.gov/Archives/edgar/data/1561550/000156155023000006/0001561550-23-000006-index.htm" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="G74" r:id="rId13" tooltip="https://www.sec.gov/Archives/edgar/data/1561550/000156155023000006/0001561550-23-000006-index.htm" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="H1" r:id="rId14" display="https://finbox.com/NASDAQGS:DDOG/explorer/revenue_proj" xr:uid="{3169BC1B-53C1-C64C-93F3-6AAE0E545185}"/>
-    <hyperlink ref="M106" r:id="rId15" xr:uid="{BFB3513A-4708-F941-AF41-31DBCCA5C6AF}"/>
+    <hyperlink ref="M107" r:id="rId15" xr:uid="{BFB3513A-4708-F941-AF41-31DBCCA5C6AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId16"/>

--- a/Technology/Software/Datadog.xlsx
+++ b/Technology/Software/Datadog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDDF48C-04EC-554F-9DE8-C6784A854BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2836DD87-A73C-D34E-A59F-CC554A5A8263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,9 +543,6 @@
     <t>Share Dilution (5yr)</t>
   </si>
   <si>
-    <t>Shares (No dilution)</t>
-  </si>
-  <si>
     <t>Unlevered FCF</t>
   </si>
   <si>
@@ -577,6 +574,9 @@
   </si>
   <si>
     <t>4Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Shares Outstanding</t>
   </si>
 </sst>
 </file>
@@ -2300,15 +2300,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>49213</xdr:rowOff>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:colOff>1555750</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2346,13 +2346,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2368,14 +2370,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2385,6 +2387,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2512,11 +2516,11 @@
     <v>Powered by Refinitiv</v>
     <v>118.02</v>
     <v>61.34</v>
-    <v>0.99299999999999999</v>
-    <v>-0.54</v>
-    <v>-6.1159999999999999E-3</v>
-    <v>-0.16</v>
-    <v>-1.823E-3</v>
+    <v>1.0203</v>
+    <v>0.96</v>
+    <v>1.1893000000000001E-2</v>
+    <v>0.12</v>
+    <v>1.469E-3</v>
     <v>USD</v>
     <v>Datadog, Inc. is the observability and security platform for cloud applications. The Company's software as a service (SaaS) platform integrates and automates infrastructure monitoring, application performance monitoring, log management, real-user monitoring, and various other capabilities to provide unified, real-time observability and security for its customers entire technology stack. Its platform consists of products that can be used individually or as a unified solution and includes a marketplace where customers can access products built by its partners on top of the Datadog platform. The Company's products include Infrastructure Monitoring, Application Performance Monitoring (APM), Log Management, Digital Experience Monitoring, Continuous Profiler, Database Monitoring, Network Monitoring, Incident Management, Observability Pipelines, Cloud Cost Management, Universal Service Monitoring, Cloud Security Management, Application Security Management, CI Visibility and others.</v>
     <v>4800</v>
@@ -2524,24 +2528,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>620 8th Avenue, 45th Floor, NEW YORK, NY, 10018 US</v>
-    <v>89.52</v>
+    <v>82.44</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.99548101797</v>
+    <v>45226.999469142967</v>
     <v>0</v>
-    <v>87.12</v>
-    <v>28518706125</v>
+    <v>80.459999999999994</v>
+    <v>26545960000</v>
     <v>DATADOG, INC.</v>
     <v>DATADOG, INC.</v>
-    <v>88.57</v>
-    <v>88.29</v>
-    <v>87.75</v>
-    <v>87.59</v>
+    <v>81.8</v>
+    <v>80.72</v>
+    <v>81.680000000000007</v>
+    <v>81.8</v>
     <v>324999500</v>
     <v>DDOG</v>
     <v>DATADOG, INC. (XNAS:DDOG)</v>
-    <v>3383536</v>
-    <v>3389956</v>
+    <v>3633784</v>
+    <v>3478547</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2703,9 +2707,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3125,10 +3129,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G122" sqref="G122"/>
+      <selection pane="bottomRight" activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3736,20 +3740,20 @@
         <v>1733795000</v>
       </c>
       <c r="M16" s="26">
-        <f>((G34/C34)-1)/5</f>
-        <v>4.7439445538868918E-2</v>
+        <f>AVERAGE(F35:H35)</f>
+        <v>2.6834126308879342E-2</v>
       </c>
       <c r="N16" s="35">
         <f>O102/G3</f>
-        <v>17.025076786460509</v>
+        <v>15.847388215628918</v>
       </c>
       <c r="O16" s="35">
         <f>O102/G28</f>
-        <v>-568.55474730861249</v>
+        <v>-529.22567783094098</v>
       </c>
       <c r="P16" s="36">
         <f>O102/G107</f>
-        <v>80.671157126369806</v>
+        <v>75.090829887021314</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3801,13 +3805,13 @@
         <v>122</v>
       </c>
       <c r="N18" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="O18" s="34" t="s">
+      <c r="P18" s="20" t="s">
         <v>162</v>
-      </c>
-      <c r="P18" s="20" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3853,15 +3857,15 @@
       </c>
       <c r="N19" s="35">
         <f>O102/H3</f>
-        <v>13.87771587591241</v>
+        <v>12.917742092457422</v>
       </c>
       <c r="O19" s="35">
         <f>O102/H28</f>
-        <v>61.462728717672412</v>
+        <v>57.211120689655175</v>
       </c>
       <c r="P19" s="36">
         <f>O102/H107</f>
-        <v>92.114683866279066</v>
+        <v>85.742764857881141</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3953,13 +3957,13 @@
         <v>0.21928613685663578</v>
       </c>
       <c r="N21" s="45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3994,7 +3998,7 @@
       </c>
       <c r="P22" s="38">
         <f>H107/O102</f>
-        <v>1.0856032480681134E-2</v>
+        <v>1.166279162629643E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5920,7 +5924,7 @@
       </c>
       <c r="O95" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5956,7 +5960,7 @@
       </c>
       <c r="O96" s="50" cm="1">
         <f t="array" ref="O96">_FV(A1,"Beta")</f>
-        <v>0.99299999999999999</v>
+        <v>1.0203</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -6027,7 +6031,7 @@
       </c>
       <c r="O98" s="48">
         <f>(O95)+((O96)*(O97-O95))</f>
-        <v>8.3755140000000006E-2</v>
+        <v>8.4721665000000002E-2</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6132,7 +6136,7 @@
       </c>
       <c r="O101" s="48">
         <f>O100/O104</f>
-        <v>2.852958578204896E-2</v>
+        <v>3.0584898976138204E-2</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -6168,7 +6172,7 @@
       </c>
       <c r="O102" s="51" cm="1">
         <f t="array" ref="O102">_FV(A1,"Market cap",TRUE)</f>
-        <v>28518706125</v>
+        <v>26545960000</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -6204,7 +6208,7 @@
       </c>
       <c r="O103" s="48">
         <f>O102/O104</f>
-        <v>0.97147041421795099</v>
+        <v>0.96941510102386175</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6242,12 +6246,12 @@
       </c>
       <c r="O104" s="52">
         <f>O100+O102</f>
-        <v>29356227125</v>
+        <v>27383481000</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" ref="B105:F105" si="22">(B22*(1-0.2))+B77+B88+B81</f>
@@ -6294,7 +6298,7 @@
         <v>0.16663380003943995</v>
       </c>
       <c r="M105" s="73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N105" s="77" t="s">
         <v>142</v>
@@ -6303,7 +6307,7 @@
     </row>
     <row r="106" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
@@ -6355,12 +6359,12 @@
       </c>
       <c r="O106" s="56">
         <f>(O101*O93)+(O103*O98)</f>
-        <v>8.1956559968359488E-2</v>
+        <v>8.2763951556049847E-2</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B107" s="1">
         <v>6029000</v>
@@ -6396,7 +6400,7 @@
         <v>845000000</v>
       </c>
       <c r="M107" s="53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N107" s="58" t="s">
         <v>143</v>
@@ -6413,7 +6417,7 @@
       <c r="K108" s="74"/>
       <c r="L108" s="59">
         <f>L107*(1+O108)/(O109-O108)</f>
-        <v>15206764602.376789</v>
+        <v>14994213115.070158</v>
       </c>
       <c r="M108" s="60" t="s">
         <v>144</v>
@@ -6444,7 +6448,7 @@
       </c>
       <c r="L109" s="59">
         <f>L108+L107</f>
-        <v>16051764602.376789</v>
+        <v>15839213115.070158</v>
       </c>
       <c r="M109" s="60" t="s">
         <v>141</v>
@@ -6454,7 +6458,7 @@
       </c>
       <c r="O109" s="42">
         <f>O106</f>
-        <v>8.1956559968359488E-2</v>
+        <v>8.2763951556049847E-2</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="19" x14ac:dyDescent="0.2">
@@ -6475,7 +6479,7 @@
       </c>
       <c r="I111" s="51">
         <f>NPV(O109,H109,I109,J109,K109,L109)</f>
-        <v>12359839160.855768</v>
+        <v>12173555235.349691</v>
       </c>
       <c r="J111" s="46"/>
       <c r="K111" s="46"/>
@@ -6520,7 +6524,7 @@
       </c>
       <c r="I114" s="51">
         <f>I111+I112-I113</f>
-        <v>13406644160.855768</v>
+        <v>13220360235.349691</v>
       </c>
       <c r="J114" s="46"/>
       <c r="K114" s="46"/>
@@ -6531,11 +6535,11 @@
     </row>
     <row r="115" spans="8:15" ht="20" x14ac:dyDescent="0.2">
       <c r="H115" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="I115" s="63" cm="1">
-        <f t="array" ref="I115">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>324999500</v>
+        <v>167</v>
+      </c>
+      <c r="I115" s="63">
+        <f>H34*(1+(5*M16))</f>
+        <v>368604888.16661316</v>
       </c>
       <c r="J115" s="46"/>
       <c r="K115" s="46"/>
@@ -6550,7 +6554,7 @@
       </c>
       <c r="I116" s="65">
         <f>I114/I115</f>
-        <v>41.251276266135079</v>
+        <v>35.865938460843076</v>
       </c>
       <c r="J116" s="46"/>
       <c r="K116" s="46"/>
@@ -6565,7 +6569,7 @@
       </c>
       <c r="I117" s="66" cm="1">
         <f t="array" ref="I117">_FV(A1,"Price")</f>
-        <v>87.75</v>
+        <v>81.680000000000007</v>
       </c>
       <c r="J117" s="46"/>
       <c r="K117" s="46"/>
@@ -6580,7 +6584,7 @@
       </c>
       <c r="I118" s="67">
         <f>I116/I117-1</f>
-        <v>-0.52989998557111018</v>
+        <v>-0.56089693363316506</v>
       </c>
       <c r="J118" s="46"/>
       <c r="K118" s="46"/>

--- a/Technology/Software/Datadog.xlsx
+++ b/Technology/Software/Datadog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2836DD87-A73C-D34E-A59F-CC554A5A8263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31983377-B530-624A-A4AE-FF81A53CDD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2351,13 +2351,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2374,7 +2371,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.6689999999999995E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2386,9 +2383,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2516,11 +2510,11 @@
     <v>Powered by Refinitiv</v>
     <v>118.02</v>
     <v>61.34</v>
-    <v>1.0203</v>
-    <v>0.96</v>
-    <v>1.1893000000000001E-2</v>
-    <v>0.12</v>
-    <v>1.469E-3</v>
+    <v>1.0033000000000001</v>
+    <v>2.8</v>
+    <v>3.5335999999999999E-2</v>
+    <v>0.36</v>
+    <v>4.3880000000000004E-3</v>
     <v>USD</v>
     <v>Datadog, Inc. is the observability and security platform for cloud applications. The Company's software as a service (SaaS) platform integrates and automates infrastructure monitoring, application performance monitoring, log management, real-user monitoring, and various other capabilities to provide unified, real-time observability and security for its customers entire technology stack. Its platform consists of products that can be used individually or as a unified solution and includes a marketplace where customers can access products built by its partners on top of the Datadog platform. The Company's products include Infrastructure Monitoring, Application Performance Monitoring (APM), Log Management, Digital Experience Monitoring, Continuous Profiler, Database Monitoring, Network Monitoring, Incident Management, Observability Pipelines, Cloud Cost Management, Universal Service Monitoring, Cloud Security Management, Application Security Management, CI Visibility and others.</v>
     <v>4800</v>
@@ -2528,24 +2522,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>620 8th Avenue, 45th Floor, NEW YORK, NY, 10018 US</v>
-    <v>82.44</v>
+    <v>83.05</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45226.999469142967</v>
+    <v>45233.99974736094</v>
     <v>0</v>
-    <v>80.459999999999994</v>
-    <v>26545960000</v>
+    <v>79</v>
+    <v>26662960000</v>
     <v>DATADOG, INC.</v>
     <v>DATADOG, INC.</v>
-    <v>81.8</v>
-    <v>80.72</v>
-    <v>81.680000000000007</v>
-    <v>81.8</v>
+    <v>79.47</v>
+    <v>79.239999999999995</v>
+    <v>82.04</v>
+    <v>82.4</v>
     <v>324999500</v>
     <v>DDOG</v>
     <v>DATADOG, INC. (XNAS:DDOG)</v>
-    <v>3633784</v>
-    <v>3478547</v>
+    <v>5744698</v>
+    <v>3854647</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2707,9 +2701,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3129,10 +3123,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K100" sqref="K100"/>
+      <selection pane="bottomRight" activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3745,15 +3739,15 @@
       </c>
       <c r="N16" s="35">
         <f>O102/G3</f>
-        <v>15.847388215628918</v>
+        <v>15.917234791952719</v>
       </c>
       <c r="O16" s="35">
         <f>O102/G28</f>
-        <v>-529.22567783094098</v>
+        <v>-531.55821371610841</v>
       </c>
       <c r="P16" s="36">
         <f>O102/G107</f>
-        <v>75.090829887021314</v>
+        <v>75.42178898952811</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3857,15 +3851,15 @@
       </c>
       <c r="N19" s="35">
         <f>O102/H3</f>
-        <v>12.917742092457422</v>
+        <v>12.974676399026764</v>
       </c>
       <c r="O19" s="35">
         <f>O102/H28</f>
-        <v>57.211120689655175</v>
+        <v>57.463275862068969</v>
       </c>
       <c r="P19" s="36">
         <f>O102/H107</f>
-        <v>85.742764857881141</v>
+        <v>86.120671834625327</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3998,7 +3992,7 @@
       </c>
       <c r="P22" s="38">
         <f>H107/O102</f>
-        <v>1.166279162629643E-2</v>
+        <v>1.1611614014347994E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5924,7 +5918,7 @@
       </c>
       <c r="O95" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.6689999999999995E-2</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5960,7 +5954,7 @@
       </c>
       <c r="O96" s="50" cm="1">
         <f t="array" ref="O96">_FV(A1,"Beta")</f>
-        <v>1.0203</v>
+        <v>1.0033000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -6031,7 +6025,7 @@
       </c>
       <c r="O98" s="48">
         <f>(O95)+((O96)*(O97-O95))</f>
-        <v>8.4721665000000002E-2</v>
+        <v>8.4123123000000008E-2</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6136,7 +6130,7 @@
       </c>
       <c r="O101" s="48">
         <f>O100/O104</f>
-        <v>3.0584898976138204E-2</v>
+        <v>3.0454776409183534E-2</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -6172,7 +6166,7 @@
       </c>
       <c r="O102" s="51" cm="1">
         <f t="array" ref="O102">_FV(A1,"Market cap",TRUE)</f>
-        <v>26545960000</v>
+        <v>26662960000</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -6208,7 +6202,7 @@
       </c>
       <c r="O103" s="48">
         <f>O102/O104</f>
-        <v>0.96941510102386175</v>
+        <v>0.96954522359081652</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6246,7 +6240,7 @@
       </c>
       <c r="O104" s="52">
         <f>O100+O102</f>
-        <v>27383481000</v>
+        <v>27500481000</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6359,7 +6353,7 @@
       </c>
       <c r="O106" s="56">
         <f>(O101*O93)+(O103*O98)</f>
-        <v>8.2763951556049847E-2</v>
+        <v>8.2191967053983225E-2</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -6417,7 +6411,7 @@
       <c r="K108" s="74"/>
       <c r="L108" s="59">
         <f>L107*(1+O108)/(O109-O108)</f>
-        <v>14994213115.070158</v>
+        <v>15144172243.323414</v>
       </c>
       <c r="M108" s="60" t="s">
         <v>144</v>
@@ -6448,7 +6442,7 @@
       </c>
       <c r="L109" s="59">
         <f>L108+L107</f>
-        <v>15839213115.070158</v>
+        <v>15989172243.323414</v>
       </c>
       <c r="M109" s="60" t="s">
         <v>141</v>
@@ -6458,7 +6452,7 @@
       </c>
       <c r="O109" s="42">
         <f>O106</f>
-        <v>8.2763951556049847E-2</v>
+        <v>8.2191967053983225E-2</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="19" x14ac:dyDescent="0.2">
@@ -6479,7 +6473,7 @@
       </c>
       <c r="I111" s="51">
         <f>NPV(O109,H109,I109,J109,K109,L109)</f>
-        <v>12173555235.349691</v>
+        <v>12304977905.307777</v>
       </c>
       <c r="J111" s="46"/>
       <c r="K111" s="46"/>
@@ -6524,7 +6518,7 @@
       </c>
       <c r="I114" s="51">
         <f>I111+I112-I113</f>
-        <v>13220360235.349691</v>
+        <v>13351782905.307777</v>
       </c>
       <c r="J114" s="46"/>
       <c r="K114" s="46"/>
@@ -6554,7 +6548,7 @@
       </c>
       <c r="I116" s="65">
         <f>I114/I115</f>
-        <v>35.865938460843076</v>
+        <v>36.222479228958669</v>
       </c>
       <c r="J116" s="46"/>
       <c r="K116" s="46"/>
@@ -6569,7 +6563,7 @@
       </c>
       <c r="I117" s="66" cm="1">
         <f t="array" ref="I117">_FV(A1,"Price")</f>
-        <v>81.680000000000007</v>
+        <v>82.04</v>
       </c>
       <c r="J117" s="46"/>
       <c r="K117" s="46"/>
@@ -6584,7 +6578,7 @@
       </c>
       <c r="I118" s="67">
         <f>I116/I117-1</f>
-        <v>-0.56089693363316506</v>
+        <v>-0.55847782509801724</v>
       </c>
       <c r="J118" s="46"/>
       <c r="K118" s="46"/>

--- a/Technology/Software/Datadog.xlsx
+++ b/Technology/Software/Datadog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31983377-B530-624A-A4AE-FF81A53CDD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD71D30-E5DD-C848-AD54-52E028ACF1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1569,16 +1569,16 @@
                   <c:v>309600000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>358300000</c:v>
+                  <c:v>362300000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>539000000</c:v>
+                  <c:v>547000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>707000000</c:v>
+                  <c:v>682000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>845000000</c:v>
+                  <c:v>822000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2371,7 +2371,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6689999999999995E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2510,11 +2510,11 @@
     <v>Powered by Refinitiv</v>
     <v>118.02</v>
     <v>61.34</v>
-    <v>1.0033000000000001</v>
-    <v>2.8</v>
-    <v>3.5335999999999999E-2</v>
-    <v>0.36</v>
-    <v>4.3880000000000004E-3</v>
+    <v>1.0536000000000001</v>
+    <v>0.24</v>
+    <v>2.3999999999999998E-3</v>
+    <v>-0.84</v>
+    <v>-8.3809999999999996E-3</v>
     <v>USD</v>
     <v>Datadog, Inc. is the observability and security platform for cloud applications. The Company's software as a service (SaaS) platform integrates and automates infrastructure monitoring, application performance monitoring, log management, real-user monitoring, and various other capabilities to provide unified, real-time observability and security for its customers entire technology stack. Its platform consists of products that can be used individually or as a unified solution and includes a marketplace where customers can access products built by its partners on top of the Datadog platform. The Company's products include Infrastructure Monitoring, Application Performance Monitoring (APM), Log Management, Digital Experience Monitoring, Continuous Profiler, Database Monitoring, Network Monitoring, Incident Management, Observability Pipelines, Cloud Cost Management, Universal Service Monitoring, Cloud Security Management, Application Security Management, CI Visibility and others.</v>
     <v>4800</v>
@@ -2522,24 +2522,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>620 8th Avenue, 45th Floor, NEW YORK, NY, 10018 US</v>
-    <v>83.05</v>
+    <v>102.48</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45233.99974736094</v>
+    <v>45239.972256885936</v>
     <v>0</v>
-    <v>79</v>
-    <v>26662960000</v>
+    <v>99.6</v>
+    <v>32574699885</v>
     <v>DATADOG, INC.</v>
     <v>DATADOG, INC.</v>
-    <v>79.47</v>
-    <v>79.239999999999995</v>
-    <v>82.04</v>
-    <v>82.4</v>
+    <v>100.49</v>
+    <v>99.99</v>
+    <v>100.23</v>
+    <v>99.39</v>
     <v>324999500</v>
     <v>DDOG</v>
     <v>DATADOG, INC. (XNAS:DDOG)</v>
-    <v>5744698</v>
-    <v>3854647</v>
+    <v>6938070</v>
+    <v>5454559</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2701,9 +2701,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3123,10 +3123,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I97" sqref="I97"/>
+      <selection pane="bottomRight" activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3739,15 +3739,15 @@
       </c>
       <c r="N16" s="35">
         <f>O102/G3</f>
-        <v>15.917234791952719</v>
+        <v>19.446421040534894</v>
       </c>
       <c r="O16" s="35">
         <f>O102/G28</f>
-        <v>-531.55821371610841</v>
+        <v>-649.41586692583735</v>
       </c>
       <c r="P16" s="36">
         <f>O102/G107</f>
-        <v>75.42178898952811</v>
+        <v>92.144388362120182</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3851,15 +3851,15 @@
       </c>
       <c r="N19" s="35">
         <f>O102/H3</f>
-        <v>12.974676399026764</v>
+        <v>15.851435467153285</v>
       </c>
       <c r="O19" s="35">
         <f>O102/H28</f>
-        <v>57.463275862068969</v>
+        <v>70.20409457974138</v>
       </c>
       <c r="P19" s="36">
         <f>O102/H107</f>
-        <v>86.120671834625327</v>
+        <v>105.21543890503877</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="P22" s="38">
         <f>H107/O102</f>
-        <v>1.1611614014347994E-2</v>
+        <v>9.5043085920360117E-3</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="O95" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6689999999999995E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="O96" s="50" cm="1">
         <f t="array" ref="O96">_FV(A1,"Beta")</f>
-        <v>1.0033000000000001</v>
+        <v>1.0536000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="O98" s="48">
         <f>(O95)+((O96)*(O97-O95))</f>
-        <v>8.4123123000000008E-2</v>
+        <v>8.6052344000000003E-2</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="O101" s="48">
         <f>O100/O104</f>
-        <v>3.0454776409183534E-2</v>
+        <v>2.5066307411369792E-2</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="O102" s="51" cm="1">
         <f t="array" ref="O102">_FV(A1,"Market cap",TRUE)</f>
-        <v>26662960000</v>
+        <v>32574699885</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -6202,7 +6202,7 @@
       </c>
       <c r="O103" s="48">
         <f>O102/O104</f>
-        <v>0.96954522359081652</v>
+        <v>0.97493369258863016</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6240,7 +6240,7 @@
       </c>
       <c r="O104" s="52">
         <f>O100+O102</f>
-        <v>27500481000</v>
+        <v>33412220885</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6277,19 +6277,19 @@
       </c>
       <c r="I105" s="72">
         <f>I107/I3</f>
-        <v>0.14062009419152277</v>
+        <v>0.14218995290423861</v>
       </c>
       <c r="J105" s="72">
         <f>J107/J3</f>
-        <v>0.16739130434782609</v>
+        <v>0.16987577639751553</v>
       </c>
       <c r="K105" s="72">
         <f>K107/K3</f>
-        <v>0.17056694813027745</v>
+        <v>0.16453558504221955</v>
       </c>
       <c r="L105" s="72">
         <f>L107/L3</f>
-        <v>0.16663380003943995</v>
+        <v>0.16209820548215342</v>
       </c>
       <c r="M105" s="73" t="s">
         <v>164</v>
@@ -6330,30 +6330,30 @@
       </c>
       <c r="I106" s="54">
         <f t="shared" si="23"/>
-        <v>0.15729974160206717</v>
+        <v>0.17021963824289399</v>
       </c>
       <c r="J106" s="54">
         <f t="shared" si="23"/>
-        <v>0.50432598381244764</v>
+        <v>0.50979850952249528</v>
       </c>
       <c r="K106" s="54">
         <f t="shared" si="23"/>
-        <v>0.31168831168831179</v>
+        <v>0.24680073126142599</v>
       </c>
       <c r="L106" s="54">
         <f t="shared" si="23"/>
-        <v>0.19519094766619527</v>
+        <v>0.20527859237536661</v>
       </c>
       <c r="M106" s="55">
         <f>SUM(H106:L106)/5</f>
-        <v>0.20885473735740473</v>
+        <v>0.20157323468403679</v>
       </c>
       <c r="N106" s="41" t="s">
         <v>106</v>
       </c>
       <c r="O106" s="56">
         <f>(O101*O93)+(O103*O98)</f>
-        <v>8.2191967053983225E-2</v>
+        <v>8.4414515712830374E-2</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -6382,16 +6382,16 @@
         <v>309600000</v>
       </c>
       <c r="I107" s="57">
-        <v>358300000</v>
+        <v>362300000</v>
       </c>
       <c r="J107" s="57">
-        <v>539000000</v>
+        <v>547000000</v>
       </c>
       <c r="K107" s="57">
-        <v>707000000</v>
+        <v>682000000</v>
       </c>
       <c r="L107" s="57">
-        <v>845000000</v>
+        <v>822000000</v>
       </c>
       <c r="M107" s="53" t="s">
         <v>159</v>
@@ -6411,7 +6411,7 @@
       <c r="K108" s="74"/>
       <c r="L108" s="59">
         <f>L107*(1+O108)/(O109-O108)</f>
-        <v>15144172243.323414</v>
+        <v>14180878020.99267</v>
       </c>
       <c r="M108" s="60" t="s">
         <v>144</v>
@@ -6430,19 +6430,19 @@
       </c>
       <c r="I109" s="59">
         <f t="shared" si="24"/>
-        <v>358300000</v>
+        <v>362300000</v>
       </c>
       <c r="J109" s="59">
         <f t="shared" si="24"/>
-        <v>539000000</v>
+        <v>547000000</v>
       </c>
       <c r="K109" s="59">
         <f t="shared" si="24"/>
-        <v>707000000</v>
+        <v>682000000</v>
       </c>
       <c r="L109" s="59">
         <f>L108+L107</f>
-        <v>15989172243.323414</v>
+        <v>15002878020.99267</v>
       </c>
       <c r="M109" s="60" t="s">
         <v>141</v>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="O109" s="42">
         <f>O106</f>
-        <v>8.2191967053983225E-2</v>
+        <v>8.4414515712830374E-2</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="19" x14ac:dyDescent="0.2">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="I111" s="51">
         <f>NPV(O109,H109,I109,J109,K109,L109)</f>
-        <v>12304977905.307777</v>
+        <v>11520271196.953865</v>
       </c>
       <c r="J111" s="46"/>
       <c r="K111" s="46"/>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="I114" s="51">
         <f>I111+I112-I113</f>
-        <v>13351782905.307777</v>
+        <v>12567076196.953865</v>
       </c>
       <c r="J114" s="46"/>
       <c r="K114" s="46"/>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="I116" s="65">
         <f>I114/I115</f>
-        <v>36.222479228958669</v>
+        <v>34.093623281722238</v>
       </c>
       <c r="J116" s="46"/>
       <c r="K116" s="46"/>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="I117" s="66" cm="1">
         <f t="array" ref="I117">_FV(A1,"Price")</f>
-        <v>82.04</v>
+        <v>100.23</v>
       </c>
       <c r="J117" s="46"/>
       <c r="K117" s="46"/>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="I118" s="67">
         <f>I116/I117-1</f>
-        <v>-0.55847782509801724</v>
+        <v>-0.6598461211042379</v>
       </c>
       <c r="J118" s="46"/>
       <c r="K118" s="46"/>

--- a/Technology/Software/Datadog.xlsx
+++ b/Technology/Software/Datadog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37D68BE-17B7-8A42-A497-A3D6429D80D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B174F4-6C83-694C-98C1-884FB654F1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1673,6 +1673,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1692,7 +1694,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1705,6 +1707,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1832,11 +1836,11 @@
     <v>Powered by Refinitiv</v>
     <v>120.26</v>
     <v>61.34</v>
-    <v>1.1815</v>
-    <v>2.0499999999999998</v>
-    <v>1.7586000000000001E-2</v>
-    <v>0.38</v>
-    <v>3.2040000000000003E-3</v>
+    <v>1.1828000000000001</v>
+    <v>-1.17</v>
+    <v>-1.0174000000000001E-2</v>
+    <v>0.21</v>
+    <v>1.8450000000000001E-3</v>
     <v>USD</v>
     <v>Datadog, Inc. is the observability and security platform for cloud applications. The Company's software as a service (SaaS) platform integrates and automates infrastructure monitoring, application performance monitoring, log management, real-user monitoring, and various other capabilities to provide unified, real-time observability and security for its customers entire technology stack. Its platform consists of products that can be used individually or as a unified solution and includes a marketplace where customers can access products built by its partners on top of the Datadog platform. The Company's products include Infrastructure Monitoring, Application Performance Monitoring (APM), Log Management, Digital Experience Monitoring, Continuous Profiler, Database Monitoring, Network Monitoring, Incident Management, Observability Pipelines, Cloud Cost Management, Universal Service Monitoring, Cloud Security Management, Application Security Management, CI Visibility and others.</v>
     <v>4800</v>
@@ -1844,24 +1848,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>620 8th Avenue, 45th Floor, NEW YORK, NY, 10018 US</v>
-    <v>118.77</v>
+    <v>114.39</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.040781990625</v>
+    <v>45269.040425810155</v>
     <v>0</v>
-    <v>116.08</v>
-    <v>38973039894</v>
+    <v>112.25</v>
+    <v>37399267671</v>
     <v>DATADOG, INC.</v>
     <v>DATADOG, INC.</v>
-    <v>117.29</v>
-    <v>116.57</v>
-    <v>118.62</v>
-    <v>119</v>
+    <v>113.28</v>
+    <v>115</v>
+    <v>113.83</v>
+    <v>114.04</v>
     <v>328553700</v>
     <v>DDOG</v>
     <v>DATADOG, INC. (XNAS:DDOG)</v>
-    <v>3584923</v>
-    <v>5622972</v>
+    <v>3127618</v>
+    <v>5486664</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2469,7 +2473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L196"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
+    <sheetView topLeftCell="A114" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I175" sqref="I175"/>
     </sheetView>
@@ -9878,7 +9882,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9895,7 +9899,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>38973039894</v>
+        <v>37399267671</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>194</v>
@@ -9915,15 +9919,15 @@
         <v>196</v>
       </c>
       <c r="G3" s="35">
-        <f>AVERAGE(Financials!F129:L129)</f>
-        <v>8.6087451153757776E-3</v>
+        <f>AVERAGE(Financials!E129:L129)</f>
+        <v>1.1536285738568228E-2</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>197</v>
       </c>
       <c r="I3" s="36">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>19570816753.160015</v>
+        <v>19517885514.340141</v>
       </c>
       <c r="J3" s="37" t="s">
         <v>198</v>
@@ -9968,21 +9972,21 @@
       </c>
       <c r="G4" s="45">
         <f>A5*(1+(5*G3))</f>
-        <v>342695875.3000682</v>
+        <v>347505146.81831908</v>
       </c>
       <c r="H4" s="44" t="s">
         <v>204</v>
       </c>
       <c r="I4" s="46">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>15468707061.566698</v>
+        <v>15422508694.468803</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>205</v>
       </c>
       <c r="K4" s="47" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.7586000000000001E-2</v>
+        <v>-1.0174000000000001E-2</v>
       </c>
       <c r="L4" s="48" t="s">
         <v>206</v>
@@ -10027,14 +10031,14 @@
       </c>
       <c r="I5" s="46">
         <f>I4+G5-G6</f>
-        <v>16768985061.566696</v>
+        <v>16722786694.468803</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>212</v>
       </c>
       <c r="K5" s="49" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>118.62</v>
+        <v>113.83</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>213</v>
@@ -10054,7 +10058,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="53">
         <f>O20/F10</f>
-        <v>18.514508263182897</v>
+        <v>17.766873002850357</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>215</v>
@@ -10082,14 +10086,14 @@
       </c>
       <c r="I6" s="47">
         <f>N25</f>
-        <v>8.7848680027694664E-2</v>
+        <v>8.8019121569101161E-2</v>
       </c>
       <c r="J6" s="44" t="s">
         <v>218</v>
       </c>
       <c r="K6" s="54">
         <f>I5/G4</f>
-        <v>48.932555861326293</v>
+        <v>48.122414437826237</v>
       </c>
       <c r="L6" s="55" t="s">
         <v>219</v>
@@ -10109,14 +10113,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56">
         <f>O20/F12</f>
-        <v>72.575493284916206</v>
+        <v>69.644818754189942</v>
       </c>
       <c r="B7" s="57" t="s">
         <v>221</v>
       </c>
       <c r="C7" s="58">
         <f>F15/A3</f>
-        <v>9.7246712350592904E-3</v>
+        <v>1.0133888271130046E-2</v>
       </c>
       <c r="D7" s="57" t="s">
         <v>222</v>
@@ -10143,7 +10147,7 @@
       </c>
       <c r="K7" s="64">
         <f>K6/K5-1</f>
-        <v>-0.58748477608054039</v>
+        <v>-0.57724313065249722</v>
       </c>
       <c r="L7" s="65" t="s">
         <v>225</v>
@@ -10470,7 +10474,7 @@
       </c>
       <c r="O14" s="85">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="40"/>
       <c r="Q14" s="40"/>
@@ -10517,7 +10521,7 @@
       </c>
       <c r="O15" s="89" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.1815</v>
+        <v>1.1828000000000001</v>
       </c>
       <c r="P15" s="40"/>
       <c r="Q15" s="40"/>
@@ -10622,7 +10626,7 @@
       </c>
       <c r="O17" s="92">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.1494135000000004E-2</v>
+        <v>9.1822012000000008E-2</v>
       </c>
       <c r="P17" s="40"/>
       <c r="Q17" s="40"/>
@@ -10704,7 +10708,7 @@
       </c>
       <c r="O20" s="98" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>38973039894</v>
+        <v>37399267671</v>
       </c>
       <c r="P20" s="40"/>
       <c r="Q20" s="40"/>
@@ -10734,7 +10738,7 @@
       </c>
       <c r="O21" s="98">
         <f>O19+O20</f>
-        <v>39858123894</v>
+        <v>38284351671</v>
       </c>
       <c r="P21" s="40"/>
       <c r="Q21" s="40"/>
@@ -10762,7 +10766,7 @@
       </c>
       <c r="O22" s="99">
         <f>(O19/O21)</f>
-        <v>2.2205862030882872E-2</v>
+        <v>2.3118688481551117E-2</v>
       </c>
       <c r="P22" s="40"/>
       <c r="Q22" s="40"/>
@@ -10787,7 +10791,7 @@
       </c>
       <c r="O23" s="100">
         <f>O20/O21</f>
-        <v>0.97779413796911707</v>
+        <v>0.97688131151844892</v>
       </c>
       <c r="P23" s="40"/>
       <c r="Q23" s="40"/>
@@ -10831,7 +10835,7 @@
       <c r="M25" s="74"/>
       <c r="N25" s="107">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.7848680027694664E-2</v>
+        <v>8.8019121569101161E-2</v>
       </c>
       <c r="O25" s="108"/>
       <c r="P25" s="40"/>
